--- a/results/datasheets/search-results.xlsx
+++ b/results/datasheets/search-results.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="5000" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10000" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="15000" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
   <si>
     <t xml:space="preserve">AND</t>
   </si>
@@ -32,6 +34,21 @@
   </si>
   <si>
     <t xml:space="preserve">NOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(call || enron) &amp;&amp; (time || attach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</t>
   </si>
   <si>
     <t xml:space="preserve">!enron &amp;&amp; !time</t>
@@ -48,21 +65,6 @@
   <si>
     <t xml:space="preserve">returned docs:</t>
   </si>
-  <si>
-    <t xml:space="preserve">2 words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(call || enron) &amp;&amp; (time || attach)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</t>
-  </si>
 </sst>
 </file>
 
@@ -71,11 +73,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,13 +95,37 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,13 +162,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -178,7 +213,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -216,7 +251,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -248,7 +283,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$33:$R$33</c:f>
+              <c:f>'5000'!$F$29:$Q$29</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -292,45 +327,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$34:$R$34</c:f>
+              <c:f>'5000'!$F$31:$Q$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0986</c:v>
+                  <c:v>0.0271666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.191166666666667</c:v>
+                  <c:v>0.0586666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2925</c:v>
+                  <c:v>0.0963333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.105833333333333</c:v>
+                  <c:v>0.031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.399666666666667</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.02116666666667</c:v>
+                  <c:v>0.170833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2474</c:v>
+                  <c:v>0.0593333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4045</c:v>
+                  <c:v>0.0963333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2588</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0985</c:v>
+                  <c:v>0.0268333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2625</c:v>
+                  <c:v>0.0463333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.105</c:v>
+                  <c:v>0.028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,11 +373,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="4984147"/>
-        <c:axId val="30412141"/>
+        <c:axId val="5778736"/>
+        <c:axId val="41627275"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4984147"/>
+        <c:axId val="5778736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,14 +412,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30412141"/>
+        <c:crossAx val="41627275"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30412141"/>
+        <c:axId val="41627275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +463,505 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4984147"/>
+        <c:crossAx val="5778736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10000'!$E$23:$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(call || enron) &amp;&amp; (time || attach)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>!enron &amp;&amp; !time</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>!(enron &amp;&amp; time)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>!enron || !time</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>!(enron || time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000'!$E$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0271666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0586666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0963333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.170833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0593333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0963333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0268333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0463333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="25125035"/>
+        <c:axId val="48098871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="25125035"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48098871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48098871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25125035"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'15000'!$G$31:$R$31</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(call || enron) &amp;&amp; (time || attach)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>!enron &amp;&amp; !time</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>!(enron &amp;&amp; time)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>!enron || !time</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>!(enron || time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'15000'!$G$33:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.399666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.02116666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="85185201"/>
+        <c:axId val="16651359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85185201"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16651359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16651359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85185201"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -469,16 +1002,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>347400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>264240</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -486,7 +1019,77 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10053000" y="6802560"/>
+        <a:off x="6863400" y="5960880"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591840</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4585680" y="4511160"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1920240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>93600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8304840" y="5794560"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -505,157 +1108,1216 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="F12:R34"/>
+  <dimension ref="E4:R31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.1887755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="44.3061224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3622448979592"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7551020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.8112244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>440</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1945</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>2835</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>3366</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>976</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>263</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>3023</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>4528</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>4528</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>440</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1945</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>2835</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>3366</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>976</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>263</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>3023</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>4528</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>4528</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="0" t="n">
+        <f aca="false">AVERAGE(G10:G15)</f>
+        <v>0.0271666666666667</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">AVERAGE(H10:H15)</f>
+        <v>0.0586666666666667</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">AVERAGE(I10:I15)</f>
+        <v>0.0963333333333333</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">AVERAGE(J10:J15)</f>
+        <v>0.031</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">AVERAGE(K10:K15)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">AVERAGE(L10:L15)</f>
+        <v>0.170833333333333</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">AVERAGE(M10:M15)</f>
+        <v>0.0593333333333333</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">AVERAGE(N10:N15)</f>
+        <v>0.0963333333333333</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">AVERAGE(O10:O15)</f>
+        <v>0.045</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">AVERAGE(P10:P15)</f>
+        <v>0.0268333333333333</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">AVERAGE(Q10:Q15)</f>
+        <v>0.0463333333333333</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">AVERAGE(R10:R15)</f>
+        <v>0.028</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D4:Q25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O38" activeCellId="0" sqref="O38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>869</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>3995</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>5861</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>6867</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1958</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>554</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>5910</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>9036</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>9036</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>869</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>3995</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>5861</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>6867</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1958</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>554</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>5910</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>9036</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>9036</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="n">
+        <f aca="false">AVERAGE(F7:F12)</f>
+        <v>0.0271666666666667</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">AVERAGE(G7:G12)</f>
+        <v>0.0586666666666667</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">AVERAGE(H7:H12)</f>
+        <v>0.0963333333333333</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">AVERAGE(I7:I12)</f>
+        <v>0.031</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">AVERAGE(J7:J12)</f>
+        <v>0.08</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">AVERAGE(K7:K12)</f>
+        <v>0.170833333333333</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">AVERAGE(L7:L12)</f>
+        <v>0.0593333333333333</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">AVERAGE(M7:M12)</f>
+        <v>0.0963333333333333</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">AVERAGE(N7:N12)</f>
+        <v>0.045</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">AVERAGE(O7:O12)</f>
+        <v>0.0268333333333333</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">AVERAGE(P7:P12)</f>
+        <v>0.0463333333333333</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">AVERAGE(Q7:Q12)</f>
+        <v>0.028</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="F12:R33"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="0" t="n">
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>7</v>
+      <c r="Q13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="0" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1.026</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>0.106</v>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>5864</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>8481</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>10035</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>2944</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>8958</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>13535</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>13535</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>8958</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="0" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.299</v>
+        <v>0.296</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.399</v>
+        <v>0.401</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1.02</v>
+        <v>1.026</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>0.402</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.258</v>
+        <v>0.256</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.096</v>
+        <v>0.101</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0.262</v>
+        <v>0.261</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>0.106</v>
@@ -663,75 +2325,75 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="0" t="n">
-        <v>0.096</v>
+        <v>0.099</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.289</v>
+        <v>0.299</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.403</v>
+        <v>0.399</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>1.02</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.249</v>
+        <v>0.248</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.407</v>
+        <v>0.402</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.259</v>
+        <v>0.258</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.101</v>
+        <v>0.096</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="0" t="n">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.291</v>
+        <v>0.289</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0.106</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.399</v>
+        <v>0.403</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>1.021</v>
+        <v>1.02</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.405</v>
+        <v>0.407</v>
       </c>
       <c r="O17" s="0" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>0.261</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0.262</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>0.104</v>
@@ -739,207 +2401,245 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="n">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.191</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.292</v>
+        <v>0.291</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0.106</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>1.017</v>
+        <v>1.021</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>0.405</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.26</v>
+        <v>0.261</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.096</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>0.27</v>
+        <v>0.262</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0.104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="0" t="n">
+        <v>0.099</v>
+      </c>
       <c r="H19" s="0" t="n">
-        <v>0.194</v>
+        <v>0.191</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0.106</v>
       </c>
       <c r="K19" s="0" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>1.023</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>0.406</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.259</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3" t="n">
         <v>1287</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="3" t="n">
         <v>5864</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="3" t="n">
         <v>8481</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32" s="3" t="n">
         <v>10035</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="3" t="n">
         <v>2944</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="O32" s="3" t="n">
         <v>8958</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="3" t="n">
         <v>13535</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32" s="3" t="n">
         <v>13535</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32" s="3" t="n">
         <v>8958</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="R33" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="0" t="n">
-        <f aca="false">AVERAGE(G14:G19)</f>
+      <c r="G33" s="0" t="n">
+        <f aca="false">AVERAGE(G15:G20)</f>
         <v>0.0986</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <f aca="false">AVERAGE(H14:H19)</f>
+      <c r="H33" s="0" t="n">
+        <f aca="false">AVERAGE(H15:H20)</f>
         <v>0.191166666666667</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <f aca="false">AVERAGE(I14:I19)</f>
+      <c r="I33" s="0" t="n">
+        <f aca="false">AVERAGE(I15:I20)</f>
         <v>0.2925</v>
       </c>
-      <c r="J34" s="0" t="n">
-        <f aca="false">AVERAGE(J14:J19)</f>
+      <c r="J33" s="0" t="n">
+        <f aca="false">AVERAGE(J15:J20)</f>
         <v>0.105833333333333</v>
       </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">AVERAGE(K14:K19)</f>
+      <c r="K33" s="0" t="n">
+        <f aca="false">AVERAGE(K15:K20)</f>
         <v>0.399666666666667</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <f aca="false">AVERAGE(L14:L19)</f>
+      <c r="L33" s="0" t="n">
+        <f aca="false">AVERAGE(L15:L20)</f>
         <v>1.02116666666667</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <f aca="false">AVERAGE(M14:M19)</f>
+      <c r="M33" s="0" t="n">
+        <f aca="false">AVERAGE(M15:M20)</f>
         <v>0.2474</v>
       </c>
-      <c r="N34" s="0" t="n">
-        <f aca="false">AVERAGE(N14:N19)</f>
+      <c r="N33" s="0" t="n">
+        <f aca="false">AVERAGE(N15:N20)</f>
         <v>0.4045</v>
       </c>
-      <c r="O34" s="0" t="n">
-        <f aca="false">AVERAGE(O14:O19)</f>
+      <c r="O33" s="0" t="n">
+        <f aca="false">AVERAGE(O15:O20)</f>
         <v>0.2588</v>
       </c>
-      <c r="P34" s="0" t="n">
-        <f aca="false">AVERAGE(P14:P19)</f>
+      <c r="P33" s="0" t="n">
+        <f aca="false">AVERAGE(P15:P20)</f>
         <v>0.0985</v>
       </c>
-      <c r="Q34" s="0" t="n">
-        <f aca="false">AVERAGE(Q14:Q19)</f>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">AVERAGE(Q15:Q20)</f>
         <v>0.2625</v>
       </c>
-      <c r="R34" s="0" t="n">
-        <f aca="false">AVERAGE(R14:R19)</f>
+      <c r="R33" s="0" t="n">
+        <f aca="false">AVERAGE(R15:R20)</f>
         <v>0.105</v>
       </c>
     </row>
@@ -949,10 +2649,10 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:R12"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:R30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/results/datasheets/search-results.xlsx
+++ b/results/datasheets/search-results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5000" sheetId="1" state="visible" r:id="rId2"/>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +101,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -251,7 +257,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -274,6 +280,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -373,11 +380,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="5778736"/>
-        <c:axId val="41627275"/>
+        <c:axId val="97526461"/>
+        <c:axId val="23640582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5778736"/>
+        <c:axId val="97526461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,14 +419,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41627275"/>
+        <c:crossAx val="23640582"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41627275"/>
+        <c:axId val="23640582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +441,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -463,7 +470,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5778736"/>
+        <c:crossAx val="97526461"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -500,7 +507,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -523,6 +530,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -581,40 +589,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0271666666666667</c:v>
+                  <c:v>0.0633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0586666666666667</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0963333333333333</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.031</c:v>
+                  <c:v>0.0646666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>0.2245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.170833333333333</c:v>
+                  <c:v>0.540833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0593333333333333</c:v>
+                  <c:v>0.141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0963333333333333</c:v>
+                  <c:v>0.234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>0.133666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0268333333333333</c:v>
+                  <c:v>0.064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0463333333333333</c:v>
+                  <c:v>0.136166666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.028</c:v>
+                  <c:v>0.065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,11 +630,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25125035"/>
-        <c:axId val="48098871"/>
+        <c:axId val="40774833"/>
+        <c:axId val="81418229"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25125035"/>
+        <c:axId val="40774833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,14 +669,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48098871"/>
+        <c:crossAx val="81418229"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48098871"/>
+        <c:axId val="81418229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +691,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -712,7 +720,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25125035"/>
+        <c:crossAx val="40774833"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -749,7 +757,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -772,6 +780,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -871,11 +880,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="85185201"/>
-        <c:axId val="16651359"/>
+        <c:axId val="76839567"/>
+        <c:axId val="69716751"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85185201"/>
+        <c:axId val="76839567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,14 +919,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16651359"/>
+        <c:crossAx val="69716751"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16651359"/>
+        <c:axId val="69716751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +941,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -961,7 +970,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85185201"/>
+        <c:crossAx val="76839567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1009,9 +1018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1019,8 +1028,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6863400" y="5960880"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6756480" y="5960880"/>
+        <a:ext cx="5670720" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1044,9 +1053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>591840</xdr:colOff>
+      <xdr:colOff>591480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1054,8 +1063,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4585680" y="4511160"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="4522320" y="4511160"/>
+        <a:ext cx="5670360" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1079,9 +1088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1920240</xdr:colOff>
+      <xdr:colOff>1919880</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1089,8 +1098,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8304840" y="5794560"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8114400" y="5794560"/>
+        <a:ext cx="5692680" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1111,14 +1120,14 @@
   <dimension ref="E4:R31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,13 +1657,13 @@
   </sheetPr>
   <dimension ref="D4:Q25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O38" activeCellId="0" sqref="O38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,230 +1769,230 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="0" t="n">
-        <v>0.029</v>
+        <v>0.064</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.059</v>
+        <v>0.125</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.093</v>
+        <v>0.194</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.034</v>
+        <v>0.065</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.078</v>
+        <v>0.224</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.173</v>
+        <v>0.541</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.058</v>
+        <v>0.141</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.093</v>
+        <v>0.235</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.045</v>
+        <v>0.131</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.028</v>
+        <v>0.066</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.046</v>
+        <v>0.134</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0.027</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="0" t="n">
-        <v>0.026</v>
+        <v>0.065</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.056</v>
+        <v>0.123</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.086</v>
+        <v>0.185</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.029</v>
+        <v>0.064</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.081</v>
+        <v>0.229</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.17</v>
+        <v>0.542</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.058</v>
+        <v>0.14</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.098</v>
+        <v>0.231</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.045</v>
+        <v>0.129</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.027</v>
+        <v>0.066</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.046</v>
+        <v>0.136</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.029</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="n">
-        <v>0.027</v>
+        <v>0.064</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.058</v>
+        <v>0.119</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.108</v>
+        <v>0.188</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.033</v>
+        <v>0.066</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.079</v>
+        <v>0.22</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.169</v>
+        <v>0.544</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.059</v>
+        <v>0.139</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.096</v>
+        <v>0.235</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.045</v>
+        <v>0.132</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.027</v>
+        <v>0.064</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.047</v>
+        <v>0.137</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0.029</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="0" t="n">
-        <v>0.027</v>
+        <v>0.063</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.058</v>
+        <v>0.124</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.097</v>
+        <v>0.191</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.029</v>
+        <v>0.065</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.079</v>
+        <v>0.223</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.17</v>
+        <v>0.556</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.06</v>
+        <v>0.143</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.096</v>
+        <v>0.237</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.045</v>
+        <v>0.148</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.026</v>
+        <v>0.065</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.046</v>
+        <v>0.135</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0.028</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="n">
-        <v>0.027</v>
+        <v>0.061</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.059</v>
+        <v>0.128</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.1</v>
+        <v>0.189</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.027</v>
+        <v>0.064</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.08</v>
+        <v>0.227</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.168</v>
+        <v>0.532</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.059</v>
+        <v>0.141</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.098</v>
+        <v>0.234</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.045</v>
+        <v>0.13</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.027</v>
+        <v>0.061</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.047</v>
+        <v>0.137</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>0.028</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="0" t="n">
-        <v>0.027</v>
+        <v>0.063</v>
       </c>
       <c r="G12" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0.026</v>
-      </c>
       <c r="P12" s="0" t="n">
-        <v>0.046</v>
+        <v>0.138</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0.027</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,51 +2099,51 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="0" t="n">
         <f aca="false">AVERAGE(F7:F12)</f>
-        <v>0.0271666666666667</v>
+        <v>0.0633333333333333</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">AVERAGE(G7:G12)</f>
-        <v>0.0586666666666667</v>
+        <v>0.124</v>
       </c>
       <c r="G25" s="0" t="n">
         <f aca="false">AVERAGE(H7:H12)</f>
-        <v>0.0963333333333333</v>
+        <v>0.189</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">AVERAGE(I7:I12)</f>
-        <v>0.031</v>
+        <v>0.0646666666666667</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">AVERAGE(J7:J12)</f>
-        <v>0.08</v>
+        <v>0.2245</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">AVERAGE(K7:K12)</f>
-        <v>0.170833333333333</v>
+        <v>0.540833333333333</v>
       </c>
       <c r="K25" s="0" t="n">
         <f aca="false">AVERAGE(L7:L12)</f>
-        <v>0.0593333333333333</v>
+        <v>0.141</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">AVERAGE(M7:M12)</f>
-        <v>0.0963333333333333</v>
+        <v>0.234</v>
       </c>
       <c r="M25" s="0" t="n">
         <f aca="false">AVERAGE(N7:N12)</f>
-        <v>0.045</v>
+        <v>0.133666666666667</v>
       </c>
       <c r="N25" s="0" t="n">
         <f aca="false">AVERAGE(O7:O12)</f>
-        <v>0.0268333333333333</v>
+        <v>0.064</v>
       </c>
       <c r="O25" s="0" t="n">
         <f aca="false">AVERAGE(P7:P12)</f>
-        <v>0.0463333333333333</v>
+        <v>0.136166666666667</v>
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">AVERAGE(Q7:Q12)</f>
-        <v>0.028</v>
+        <v>0.065</v>
       </c>
     </row>
   </sheetData>
@@ -2166,22 +2175,19 @@
   </sheetPr>
   <dimension ref="F12:R33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.25"/>
   </cols>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/results/datasheets/search-results.xlsx
+++ b/results/datasheets/search-results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5000" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
   <si>
     <t xml:space="preserve">AND</t>
   </si>
@@ -51,6 +51,12 @@
     <t xml:space="preserve">(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</t>
   </si>
   <si>
+    <t xml:space="preserve">(call &amp;&amp; enron) || (time &amp;&amp; attach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</t>
+  </si>
+  <si>
     <t xml:space="preserve">!enron &amp;&amp; !time</t>
   </si>
   <si>
@@ -73,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -104,12 +110,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -134,10 +134,52 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -168,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,11 +219,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,7 +339,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -280,7 +362,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -290,9 +371,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'5000'!$F$29:$Q$29</c:f>
+              <c:f>'5000'!$F$29:$S$29</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2 words</c:v>
                 </c:pt>
@@ -318,15 +399,21 @@
                   <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>!enron &amp;&amp; !time</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>!(enron &amp;&amp; time)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>!enron || !time</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>!(enron || time)</c:v>
                 </c:pt>
               </c:strCache>
@@ -334,10 +421,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5000'!$F$31:$Q$31</c:f>
+              <c:f>'5000'!$F$31:$S$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.0271666666666667</c:v>
                 </c:pt>
@@ -363,15 +450,21 @@
                   <c:v>0.0963333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.0503333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.081</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.045</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.0268333333333333</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.0463333333333333</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.028</c:v>
                 </c:pt>
               </c:numCache>
@@ -380,11 +473,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="97526461"/>
-        <c:axId val="23640582"/>
+        <c:axId val="82643858"/>
+        <c:axId val="55946521"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97526461"/>
+        <c:axId val="82643858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,14 +512,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23640582"/>
+        <c:crossAx val="55946521"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23640582"/>
+        <c:axId val="55946521"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +534,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -470,7 +563,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97526461"/>
+        <c:crossAx val="82643858"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -507,12 +600,23 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0515545590433483"/>
+          <c:y val="0.0613723540275607"/>
+          <c:w val="0.881644245142003"/>
+          <c:h val="0.359283989203012"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -530,7 +634,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -540,9 +643,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'10000'!$E$23:$P$23</c:f>
+              <c:f>'10000'!$E$23:$R$23</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2 words</c:v>
                 </c:pt>
@@ -568,15 +671,21 @@
                   <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>!enron &amp;&amp; !time</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>!(enron &amp;&amp; time)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>!enron || !time</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>!(enron || time)</c:v>
                 </c:pt>
               </c:strCache>
@@ -584,10 +693,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'10000'!$E$25:$P$25</c:f>
+              <c:f>'10000'!$E$25:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.0633333333333333</c:v>
                 </c:pt>
@@ -613,15 +722,21 @@
                   <c:v>0.234</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.133666666666667</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.064</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.136166666666667</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.065</c:v>
                 </c:pt>
               </c:numCache>
@@ -630,11 +745,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="40774833"/>
-        <c:axId val="81418229"/>
+        <c:axId val="44984030"/>
+        <c:axId val="7264917"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40774833"/>
+        <c:axId val="44984030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,14 +784,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81418229"/>
+        <c:crossAx val="7264917"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81418229"/>
+        <c:axId val="7264917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +806,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -720,7 +835,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40774833"/>
+        <c:crossAx val="44984030"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -757,7 +872,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -780,7 +895,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -790,9 +904,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'15000'!$G$31:$R$31</c:f>
+              <c:f>'15000'!$G$31:$T$31</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2 words</c:v>
                 </c:pt>
@@ -818,15 +932,21 @@
                   <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>!enron &amp;&amp; !time</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>!(enron &amp;&amp; time)</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>!enron || !time</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>!(enron || time)</c:v>
                 </c:pt>
               </c:strCache>
@@ -834,10 +954,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'15000'!$G$33:$R$33</c:f>
+              <c:f>'15000'!$G$33:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.0986</c:v>
                 </c:pt>
@@ -863,15 +983,21 @@
                   <c:v>0.4045</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.1825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.304</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2588</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.0985</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>0.2625</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0.105</c:v>
                 </c:pt>
               </c:numCache>
@@ -880,11 +1006,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="76839567"/>
-        <c:axId val="69716751"/>
+        <c:axId val="52082235"/>
+        <c:axId val="43719508"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76839567"/>
+        <c:axId val="52082235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,14 +1045,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69716751"/>
+        <c:crossAx val="43719508"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69716751"/>
+        <c:axId val="43719508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1067,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -970,7 +1096,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76839567"/>
+        <c:crossAx val="52082235"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1011,16 +1137,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609480</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>93240</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1028,8 +1154,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6756480" y="5960880"/>
-        <a:ext cx="5670720" cy="3239280"/>
+        <a:off x="3895560" y="5855760"/>
+        <a:ext cx="9222120" cy="5695200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1047,15 +1173,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>591480</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>375840</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1063,8 +1189,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4522320" y="4511160"/>
-        <a:ext cx="5670360" cy="3239280"/>
+        <a:off x="3954600" y="4341240"/>
+        <a:ext cx="12042000" cy="5068080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1081,16 +1207,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14760</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1919880</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>349200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1098,8 +1224,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8114400" y="5794560"/>
-        <a:ext cx="5692680" cy="3239280"/>
+        <a:off x="4615200" y="6112080"/>
+        <a:ext cx="14031360" cy="4541040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1117,17 +1243,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="E4:R31"/>
+  <dimension ref="E4:T31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.2040816326531"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,432 +1276,496 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>440</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="8" t="n">
         <v>1945</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="6" t="n">
         <v>2835</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="9" t="n">
         <v>3366</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="8" t="n">
         <v>976</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="6" t="n">
         <v>263</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="6" t="n">
+        <v>518</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>796</v>
+      </c>
+      <c r="Q9" s="6" t="n">
         <v>3023</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="R9" s="6" t="n">
         <v>4528</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="S9" s="6" t="n">
         <v>4528</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="T9" s="6" t="n">
         <v>3023</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="10" t="n">
         <v>0.029</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.059</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="11" t="n">
         <v>0.093</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="12" t="n">
         <v>0.034</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>0.078</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="13" t="n">
         <v>0.173</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="12" t="n">
         <v>0.058</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>0.093</v>
       </c>
       <c r="O10" s="0" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="P10" s="13" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>0.028</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>0.046</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="10" t="n">
         <v>0.026</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.056</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="11" t="n">
         <v>0.086</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="12" t="n">
         <v>0.029</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0.081</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="13" t="n">
         <v>0.17</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="12" t="n">
         <v>0.058</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>0.098</v>
       </c>
       <c r="O11" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="P11" s="13" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="Q11" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>0.027</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>0.046</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="10" t="n">
         <v>0.027</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.058</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="11" t="n">
         <v>0.108</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="12" t="n">
         <v>0.033</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="13" t="n">
         <v>0.169</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="12" t="n">
         <v>0.059</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>0.096</v>
       </c>
       <c r="O12" s="0" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>0.027</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="10" t="n">
         <v>0.027</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.058</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="11" t="n">
         <v>0.097</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="12" t="n">
         <v>0.029</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0.079</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="13" t="n">
         <v>0.17</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="12" t="n">
         <v>0.06</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>0.096</v>
       </c>
       <c r="O13" s="0" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>0.026</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>0.046</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="10" t="n">
         <v>0.027</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.059</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="11" t="n">
         <v>0.1</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="12" t="n">
         <v>0.027</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="13" t="n">
         <v>0.168</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="12" t="n">
         <v>0.059</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>0.098</v>
       </c>
       <c r="O14" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>0.027</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>0.047</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>0.028</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="10" t="n">
         <v>0.027</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="11" t="n">
         <v>0.094</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="12" t="n">
         <v>0.034</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0.083</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15" s="13" t="n">
         <v>0.175</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="12" t="n">
         <v>0.062</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>0.097</v>
       </c>
       <c r="O15" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="Q15" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>0.026</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>0.046</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8" t="n">
         <v>440</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="6" t="n">
         <v>1945</v>
       </c>
-      <c r="J30" s="3" t="n">
+      <c r="J30" s="6" t="n">
         <v>2835</v>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="K30" s="6" t="n">
         <v>3366</v>
       </c>
-      <c r="L30" s="3" t="n">
+      <c r="L30" s="8" t="n">
         <v>976</v>
       </c>
-      <c r="M30" s="3" t="n">
+      <c r="M30" s="6" t="n">
         <v>263</v>
       </c>
-      <c r="N30" s="3" t="n">
+      <c r="N30" s="6" t="n">
+        <v>518</v>
+      </c>
+      <c r="O30" s="9" t="n">
+        <v>796</v>
+      </c>
+      <c r="P30" s="6" t="n">
         <v>3023</v>
       </c>
-      <c r="O30" s="3" t="n">
+      <c r="Q30" s="6" t="n">
         <v>4528</v>
       </c>
-      <c r="P30" s="3" t="n">
+      <c r="R30" s="6" t="n">
         <v>4528</v>
       </c>
-      <c r="Q30" s="3" t="n">
+      <c r="S30" s="6" t="n">
         <v>3023</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="12" t="n">
         <f aca="false">AVERAGE(G10:G15)</f>
         <v>0.0271666666666667</v>
       </c>
@@ -1583,7 +1773,7 @@
         <f aca="false">AVERAGE(H10:H15)</f>
         <v>0.0586666666666667</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="13" t="n">
         <f aca="false">AVERAGE(I10:I15)</f>
         <v>0.0963333333333333</v>
       </c>
@@ -1599,7 +1789,7 @@
         <f aca="false">AVERAGE(L10:L15)</f>
         <v>0.170833333333333</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="12" t="n">
         <f aca="false">AVERAGE(M10:M15)</f>
         <v>0.0593333333333333</v>
       </c>
@@ -1609,18 +1799,26 @@
       </c>
       <c r="N31" s="0" t="n">
         <f aca="false">AVERAGE(O10:O15)</f>
-        <v>0.045</v>
-      </c>
-      <c r="O31" s="0" t="n">
+        <v>0.0503333333333333</v>
+      </c>
+      <c r="O31" s="13" t="n">
         <f aca="false">AVERAGE(P10:P15)</f>
-        <v>0.0268333333333333</v>
+        <v>0.081</v>
       </c>
       <c r="P31" s="0" t="n">
         <f aca="false">AVERAGE(Q10:Q15)</f>
-        <v>0.0463333333333333</v>
+        <v>0.045</v>
       </c>
       <c r="Q31" s="0" t="n">
         <f aca="false">AVERAGE(R10:R15)</f>
+        <v>0.0268333333333333</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <f aca="false">AVERAGE(S10:S15)</f>
+        <v>0.0463333333333333</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <f aca="false">AVERAGE(T10:T15)</f>
         <v>0.028</v>
       </c>
     </row>
@@ -1632,12 +1830,12 @@
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:T7"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:S28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1655,126 +1853,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D4:Q25"/>
+  <dimension ref="D4:S25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="n">
         <v>869</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="6" t="n">
         <v>3995</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="6" t="n">
         <v>5861</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="6" t="n">
         <v>6867</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="8" t="n">
         <v>1958</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="6" t="n">
         <v>554</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="6" t="n">
+        <v>1078</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>1637</v>
+      </c>
+      <c r="P6" s="6" t="n">
         <v>5910</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="Q6" s="6" t="n">
         <v>9036</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="R6" s="6" t="n">
         <v>9036</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="S6" s="6" t="n">
         <v>5910</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="12" t="n">
         <v>0.064</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.125</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="13" t="n">
         <v>0.194</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -1786,33 +1995,39 @@
       <c r="K7" s="0" t="n">
         <v>0.541</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="12" t="n">
         <v>0.141</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0.235</v>
       </c>
       <c r="N7" s="0" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>0.131</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>0.134</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>0.063</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="12" t="n">
         <v>0.065</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.123</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="13" t="n">
         <v>0.185</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -1824,33 +2039,39 @@
       <c r="K8" s="0" t="n">
         <v>0.542</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="12" t="n">
         <v>0.14</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0.231</v>
       </c>
       <c r="N8" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O8" s="13" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>0.129</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>0.066</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>0.136</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>0.064</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="12" t="n">
         <v>0.064</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.119</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="13" t="n">
         <v>0.188</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -1862,33 +2083,39 @@
       <c r="K9" s="0" t="n">
         <v>0.544</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="12" t="n">
         <v>0.139</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0.235</v>
       </c>
       <c r="N9" s="0" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="O9" s="13" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="P9" s="0" t="n">
         <v>0.132</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>0.064</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>0.137</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>0.065</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="12" t="n">
         <v>0.063</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.124</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="13" t="n">
         <v>0.191</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -1900,33 +2127,39 @@
       <c r="K10" s="0" t="n">
         <v>0.556</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="12" t="n">
         <v>0.143</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0.237</v>
       </c>
       <c r="N10" s="0" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="O10" s="13" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P10" s="0" t="n">
         <v>0.148</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>0.065</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>0.135</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>0.064</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="12" t="n">
         <v>0.061</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.128</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="13" t="n">
         <v>0.189</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -1938,33 +2171,39 @@
       <c r="K11" s="0" t="n">
         <v>0.532</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="12" t="n">
         <v>0.141</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0.234</v>
       </c>
       <c r="N11" s="0" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="O11" s="13" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>0.061</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>0.137</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="12" t="n">
         <v>0.063</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.125</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="13" t="n">
         <v>0.187</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -1976,128 +2215,148 @@
       <c r="K12" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="12" t="n">
         <v>0.142</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0.232</v>
       </c>
       <c r="N12" s="0" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="O12" s="13" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="P12" s="0" t="n">
         <v>0.132</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>0.062</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>0.138</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>0.064</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="8" t="n">
         <v>869</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="6" t="n">
         <v>3995</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="6" t="n">
         <v>5861</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="J24" s="6" t="n">
         <v>6867</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K24" s="8" t="n">
         <v>1958</v>
       </c>
-      <c r="L24" s="3" t="n">
+      <c r="L24" s="6" t="n">
         <v>554</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="M24" s="6" t="n">
+        <v>1078</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>1637</v>
+      </c>
+      <c r="O24" s="6" t="n">
         <v>5910</v>
       </c>
-      <c r="N24" s="3" t="n">
+      <c r="P24" s="6" t="n">
         <v>9036</v>
       </c>
-      <c r="O24" s="3" t="n">
+      <c r="Q24" s="6" t="n">
         <v>9036</v>
       </c>
-      <c r="P24" s="3" t="n">
+      <c r="R24" s="6" t="n">
         <v>5910</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="12" t="n">
         <f aca="false">AVERAGE(F7:F12)</f>
         <v>0.0633333333333333</v>
       </c>
@@ -2105,7 +2364,7 @@
         <f aca="false">AVERAGE(G7:G12)</f>
         <v>0.124</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="13" t="n">
         <f aca="false">AVERAGE(H7:H12)</f>
         <v>0.189</v>
       </c>
@@ -2121,7 +2380,7 @@
         <f aca="false">AVERAGE(K7:K12)</f>
         <v>0.540833333333333</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="12" t="n">
         <f aca="false">AVERAGE(L7:L12)</f>
         <v>0.141</v>
       </c>
@@ -2131,18 +2390,26 @@
       </c>
       <c r="M25" s="0" t="n">
         <f aca="false">AVERAGE(N7:N12)</f>
-        <v>0.133666666666667</v>
-      </c>
-      <c r="N25" s="0" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="N25" s="13" t="n">
         <f aca="false">AVERAGE(O7:O12)</f>
-        <v>0.064</v>
+        <v>0.194</v>
       </c>
       <c r="O25" s="0" t="n">
         <f aca="false">AVERAGE(P7:P12)</f>
-        <v>0.136166666666667</v>
+        <v>0.133666666666667</v>
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">AVERAGE(Q7:Q12)</f>
+        <v>0.064</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">AVERAGE(R7:R12)</f>
+        <v>0.136166666666667</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">AVERAGE(S7:S12)</f>
         <v>0.065</v>
       </c>
     </row>
@@ -2150,12 +2417,12 @@
   <mergeCells count="8">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:R22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2173,132 +2440,149 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="F12:R33"/>
+  <dimension ref="F12:T33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="n">
         <v>1287</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="6" t="n">
         <v>5864</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="6" t="n">
         <v>8481</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="6" t="n">
         <v>10035</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="8" t="n">
         <v>2944</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="6" t="n">
+        <v>1547</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>2433</v>
+      </c>
+      <c r="Q14" s="6" t="n">
         <v>8958</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="R14" s="6" t="n">
         <v>13535</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="S14" s="6" t="n">
         <v>13535</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="T14" s="6" t="n">
         <v>8958</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="12" t="n">
         <v>0.101</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.19</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="13" t="n">
         <v>0.296</v>
       </c>
       <c r="J15" s="0" t="n">
@@ -2310,33 +2594,39 @@
       <c r="L15" s="0" t="n">
         <v>1.026</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="12" t="n">
         <v>0.245</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>0.402</v>
       </c>
       <c r="O15" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="P15" s="13" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="Q15" s="0" t="n">
         <v>0.256</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>0.101</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>0.261</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>0.106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="12" t="n">
         <v>0.099</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="13" t="n">
         <v>0.299</v>
       </c>
       <c r="J16" s="0" t="n">
@@ -2348,33 +2638,39 @@
       <c r="L16" s="0" t="n">
         <v>1.02</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="12" t="n">
         <v>0.248</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>0.402</v>
       </c>
       <c r="O16" s="0" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="P16" s="13" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>0.258</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.096</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.262</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="12" t="n">
         <v>0.096</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.19</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="13" t="n">
         <v>0.289</v>
       </c>
       <c r="J17" s="0" t="n">
@@ -2386,33 +2682,39 @@
       <c r="L17" s="0" t="n">
         <v>1.02</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="12" t="n">
         <v>0.249</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>0.407</v>
       </c>
       <c r="O17" s="0" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="P17" s="13" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>0.259</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>0.101</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>0.261</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="12" t="n">
         <v>0.098</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="13" t="n">
         <v>0.291</v>
       </c>
       <c r="J18" s="0" t="n">
@@ -2424,33 +2726,39 @@
       <c r="L18" s="0" t="n">
         <v>1.021</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="12" t="n">
         <v>0.25</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>0.405</v>
       </c>
       <c r="O18" s="0" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="P18" s="13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>0.261</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.096</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.262</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="12" t="n">
         <v>0.099</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.191</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="13" t="n">
         <v>0.292</v>
       </c>
       <c r="J19" s="0" t="n">
@@ -2462,24 +2770,31 @@
       <c r="L19" s="0" t="n">
         <v>1.017</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="12" t="n">
         <v>0.245</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>0.405</v>
       </c>
       <c r="O19" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="P19" s="13" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="Q19" s="0" t="n">
         <v>0.26</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>0.27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="12"/>
       <c r="H20" s="0" t="n">
         <v>0.194</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="13" t="n">
         <v>0.288</v>
       </c>
       <c r="J20" s="0" t="n">
@@ -2491,116 +2806,135 @@
       <c r="L20" s="0" t="n">
         <v>1.023</v>
       </c>
+      <c r="M20" s="12"/>
       <c r="N20" s="0" t="n">
         <v>0.406</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="O20" s="0" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="S20" s="0" t="n">
         <v>0.259</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2" t="s">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G32" s="8" t="n">
         <v>1287</v>
       </c>
-      <c r="H32" s="3" t="n">
+      <c r="H32" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="J32" s="3" t="n">
+      <c r="J32" s="6" t="n">
         <v>5864</v>
       </c>
-      <c r="K32" s="3" t="n">
+      <c r="K32" s="6" t="n">
         <v>8481</v>
       </c>
-      <c r="L32" s="3" t="n">
+      <c r="L32" s="6" t="n">
         <v>10035</v>
       </c>
-      <c r="M32" s="3" t="n">
+      <c r="M32" s="8" t="n">
         <v>2944</v>
       </c>
-      <c r="N32" s="3" t="n">
+      <c r="N32" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="O32" s="3" t="n">
+      <c r="O32" s="6" t="n">
+        <v>1547</v>
+      </c>
+      <c r="P32" s="9" t="n">
+        <v>2433</v>
+      </c>
+      <c r="Q32" s="6" t="n">
         <v>8958</v>
       </c>
-      <c r="P32" s="3" t="n">
+      <c r="R32" s="6" t="n">
         <v>13535</v>
       </c>
-      <c r="Q32" s="3" t="n">
+      <c r="S32" s="6" t="n">
         <v>13535</v>
       </c>
-      <c r="R32" s="3" t="n">
+      <c r="T32" s="6" t="n">
         <v>8958</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="12" t="n">
         <f aca="false">AVERAGE(G15:G20)</f>
         <v>0.0986</v>
       </c>
@@ -2608,7 +2942,7 @@
         <f aca="false">AVERAGE(H15:H20)</f>
         <v>0.191166666666667</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="13" t="n">
         <f aca="false">AVERAGE(I15:I20)</f>
         <v>0.2925</v>
       </c>
@@ -2624,7 +2958,7 @@
         <f aca="false">AVERAGE(L15:L20)</f>
         <v>1.02116666666667</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33" s="12" t="n">
         <f aca="false">AVERAGE(M15:M20)</f>
         <v>0.2474</v>
       </c>
@@ -2634,18 +2968,26 @@
       </c>
       <c r="O33" s="0" t="n">
         <f aca="false">AVERAGE(O15:O20)</f>
-        <v>0.2588</v>
-      </c>
-      <c r="P33" s="0" t="n">
+        <v>0.1825</v>
+      </c>
+      <c r="P33" s="13" t="n">
         <f aca="false">AVERAGE(P15:P20)</f>
-        <v>0.0985</v>
+        <v>0.304</v>
       </c>
       <c r="Q33" s="0" t="n">
         <f aca="false">AVERAGE(Q15:Q20)</f>
-        <v>0.2625</v>
+        <v>0.2588</v>
       </c>
       <c r="R33" s="0" t="n">
         <f aca="false">AVERAGE(R15:R20)</f>
+        <v>0.0985</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <f aca="false">AVERAGE(S15:S20)</f>
+        <v>0.2625</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <f aca="false">AVERAGE(T15:T20)</f>
         <v>0.105</v>
       </c>
     </row>
@@ -2653,12 +2995,12 @@
   <mergeCells count="8">
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:T12"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="Q30:T30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/results/datasheets/search-results.xlsx
+++ b/results/datasheets/search-results.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5000" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="10000" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="15000" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="client iee server" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="not" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="25">
   <si>
     <t xml:space="preserve">AND</t>
   </si>
@@ -71,6 +73,33 @@
   <si>
     <t xml:space="preserve">returned docs:</t>
   </si>
+  <si>
+    <t xml:space="preserve">client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15000 w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 nots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 nots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 nots</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,6 +136,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -321,9 +356,9 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
@@ -339,7 +374,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -362,6 +397,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -473,11 +509,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82643858"/>
-        <c:axId val="55946521"/>
+        <c:axId val="12872142"/>
+        <c:axId val="16156149"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82643858"/>
+        <c:axId val="12872142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,14 +548,851 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55946521"/>
+        <c:crossAx val="16156149"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55946521"/>
+        <c:axId val="16156149"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12872142"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0515650932108534"/>
+          <c:y val="0.0613723540275607"/>
+          <c:w val="0.881624146049635"/>
+          <c:h val="0.359283989203012"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10000'!$E$23:$R$23</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(call || enron) &amp;&amp; (time || attach)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>!enron &amp;&amp; !time</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>!(enron &amp;&amp; time)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>!enron || !time</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>!(enron || time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000'!$E$25:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.0633333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0646666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.540833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.133666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.136166666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="35997320"/>
+        <c:axId val="86662728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="35997320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86662728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86662728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35997320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'15000'!$G$31:$T$31</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 words</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 words</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10 words</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(call || enron) &amp;&amp; (time || attach)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>!enron &amp;&amp; !time</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>!(enron &amp;&amp; time)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>!enron || !time</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>!(enron || time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'15000'!$G$33:$T$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.0986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.399666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.02116666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="39633155"/>
+        <c:axId val="71517812"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39633155"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71517812"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71517812"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39633155"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'client iee server'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'client iee server'!$C$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'client iee server'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'client iee server'!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'client iee server'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'client iee server'!$C$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0478333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.101166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="81518364"/>
+        <c:axId val="82511844"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81518364"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82511844"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82511844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +1436,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82643858"/>
+        <c:crossAx val="81518364"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -587,540 +1460,7 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0515545590433483"/>
-          <c:y val="0.0613723540275607"/>
-          <c:w val="0.881644245142003"/>
-          <c:h val="0.359283989203012"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'10000'!$E$23:$R$23</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2 words</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5 words</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10 words</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2 words</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 words</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10 words</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(call || enron) &amp;&amp; (time || attach)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>!enron &amp;&amp; !time</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>!(enron &amp;&amp; time)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>!enron || !time</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>!(enron || time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'10000'!$E$25:$R$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.0633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0646666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.540833333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.141</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.234</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.133666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.064</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.136166666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.065</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="44984030"/>
-        <c:axId val="7264917"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="44984030"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="7264917"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="7264917"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44984030"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'15000'!$G$31:$T$31</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2 words</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5 words</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10 words</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2 words</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5 words</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10 words</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(call || enron) &amp;&amp; (time || attach)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(call || enron) &amp;&amp; (time || attach) &amp;&amp; (inform || work) &amp;&amp; (meet || week)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(call &amp;&amp; enron) || (time &amp;&amp; attach) || (inform &amp;&amp; work) || (meet &amp;&amp; week)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>!enron &amp;&amp; !time</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>!(enron &amp;&amp; time)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>!enron || !time</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>!(enron || time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'15000'!$G$33:$T$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.0986</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.191166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2925</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.105833333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.399666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.02116666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2474</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4045</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1825</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.304</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0985</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="52082235"/>
-        <c:axId val="43719508"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="52082235"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="43719508"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="43719508"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="52082235"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1137,16 +1477,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1154,8 +1494,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3895560" y="5855760"/>
-        <a:ext cx="9222120" cy="5695200"/>
+        <a:off x="3342960" y="5855760"/>
+        <a:ext cx="7732080" cy="5694840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1179,9 +1519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>375840</xdr:colOff>
+      <xdr:colOff>375480</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1189,8 +1529,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3954600" y="4341240"/>
-        <a:ext cx="12042000" cy="5068080"/>
+        <a:off x="3049920" y="4341240"/>
+        <a:ext cx="9326880" cy="5067720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1214,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>349200</xdr:colOff>
+      <xdr:colOff>348840</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1224,8 +1564,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4615200" y="6112080"/>
-        <a:ext cx="14031360" cy="4541040"/>
+        <a:off x="4538880" y="6112080"/>
+        <a:ext cx="13850280" cy="4540680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>264960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5884200" y="3076560"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1251,9 +1626,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,11 +2233,14 @@
   </sheetPr>
   <dimension ref="D4:S25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="3" t="s">
@@ -2442,22 +2823,22 @@
   </sheetPr>
   <dimension ref="F12:T33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R33" activeCellId="0" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,4 +3392,564 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:J20"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C9)</f>
+        <v>0.086</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F9)</f>
+        <v>0.1885</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I7)</f>
+        <v>0.30825</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D9)</f>
+        <v>0.0478333333333333</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G9)</f>
+        <v>0.101166666666667</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J9)</f>
+        <v>0.163</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="H3:P23"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">AVERAGE(I5:I10)</f>
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">AVERAGE(L5:L10)</f>
+        <v>0.846</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">AVERAGE(O5:O10)</f>
+        <v>1.6615</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/results/datasheets/search-results.xlsx
+++ b/results/datasheets/search-results.xlsx
@@ -17,7 +17,7 @@
     <sheet name="15000" sheetId="3" r:id="rId3"/>
     <sheet name="client iee server" sheetId="4" r:id="rId4"/>
     <sheet name="not" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="large results" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="45">
   <si>
     <t>AND</t>
   </si>
@@ -132,12 +132,45 @@
   <si>
     <t>index size</t>
   </si>
+  <si>
+    <t>50k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>full ( 500k)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>iee w/sv</t>
+  </si>
+  <si>
+    <t>iee w/o sv</t>
+  </si>
+  <si>
+    <t>iee w/ sv</t>
+  </si>
+  <si>
+    <t>time for 4 queries</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,8 +184,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +215,35 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,23 +314,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -265,12 +329,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1707,84 +1801,84 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="7" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="1" t="s">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1792,69 +1886,69 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>440</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <v>48</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>9</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="4">
         <v>1945</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="2">
         <v>2835</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="5">
         <v>3366</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="4">
         <v>976</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="2">
         <v>263</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="2">
         <v>518</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="5">
         <v>796</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="2">
         <v>3023</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="2">
         <v>4528</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="2">
         <v>4528</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="2">
         <v>3023</v>
       </c>
     </row>
     <row r="10" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H10">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="K10">
         <v>7.8E-2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="9">
         <v>0.17299999999999999</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="8">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="N10">
@@ -1863,7 +1957,7 @@
       <c r="O10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q10">
@@ -1880,25 +1974,25 @@
       </c>
     </row>
     <row r="11" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="H11">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="K11">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="9">
         <v>0.17</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="8">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="N11">
@@ -1907,7 +2001,7 @@
       <c r="O11">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="9">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="Q11">
@@ -1924,25 +2018,25 @@
       </c>
     </row>
     <row r="12" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <v>2.7E-2</v>
       </c>
       <c r="H12">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="7">
         <v>0.108</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="K12">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="9">
         <v>0.16900000000000001</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="8">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="N12">
@@ -1951,7 +2045,7 @@
       <c r="O12">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="9">
         <v>7.8E-2</v>
       </c>
       <c r="Q12">
@@ -1968,25 +2062,25 @@
       </c>
     </row>
     <row r="13" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>2.7E-2</v>
       </c>
       <c r="H13">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="K13">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="9">
         <v>0.17</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="8">
         <v>0.06</v>
       </c>
       <c r="N13">
@@ -1995,7 +2089,7 @@
       <c r="O13">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q13">
@@ -2012,25 +2106,25 @@
       </c>
     </row>
     <row r="14" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <v>2.7E-2</v>
       </c>
       <c r="H14">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <v>0.1</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <v>2.7E-2</v>
       </c>
       <c r="K14">
         <v>0.08</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="9">
         <v>0.16800000000000001</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="8">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="N14">
@@ -2039,7 +2133,7 @@
       <c r="O14">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="9">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q14">
@@ -2056,25 +2150,25 @@
       </c>
     </row>
     <row r="15" spans="5:20" x14ac:dyDescent="0.15">
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>2.7E-2</v>
       </c>
       <c r="H15">
         <v>6.2E-2</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="7">
         <v>9.4E-2</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="K15">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="9">
         <v>0.17499999999999999</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="8">
         <v>6.2E-2</v>
       </c>
       <c r="N15">
@@ -2083,7 +2177,7 @@
       <c r="O15">
         <v>0.05</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="9">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q15">
@@ -2100,70 +2194,70 @@
       </c>
     </row>
     <row r="28" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="2" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="1" t="s">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
     </row>
     <row r="29" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="S29" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2171,51 +2265,51 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="4">
         <v>440</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="2">
         <v>48</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="5">
         <v>9</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="2">
         <v>1945</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="2">
         <v>2835</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="2">
         <v>3366</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="4">
         <v>976</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="2">
         <v>263</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="2">
         <v>518</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="5">
         <v>796</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="2">
         <v>3023</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="2">
         <v>4528</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="2">
         <v>4528</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30" s="2">
         <v>3023</v>
       </c>
     </row>
     <row r="31" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F31" s="12">
+      <c r="F31" s="8">
         <f t="shared" ref="F31:S31" si="0">AVERAGE(G10:G15)</f>
         <v>2.7166666666666669E-2</v>
       </c>
@@ -2223,7 +2317,7 @@
         <f t="shared" si="0"/>
         <v>5.8666666666666666E-2</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="9">
         <f t="shared" si="0"/>
         <v>9.6333333333333326E-2</v>
       </c>
@@ -2239,7 +2333,7 @@
         <f t="shared" si="0"/>
         <v>0.17083333333333336</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="8">
         <f t="shared" si="0"/>
         <v>5.9333333333333328E-2</v>
       </c>
@@ -2251,7 +2345,7 @@
         <f t="shared" si="0"/>
         <v>5.0333333333333334E-2</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="9">
         <f t="shared" si="0"/>
         <v>8.1000000000000003E-2</v>
       </c>
@@ -2274,11 +2368,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:S28"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -2286,6 +2375,11 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:S28"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2311,70 +2405,70 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="1" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2382,57 +2476,57 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>869</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>90</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>20</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="2">
         <v>3995</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="2">
         <v>5861</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="2">
         <v>6867</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="4">
         <v>1958</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="2">
         <v>554</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="2">
         <v>1078</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="5">
         <v>1637</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="2">
         <v>5910</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="2">
         <v>9036</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="2">
         <v>9036</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="2">
         <v>5910</v>
       </c>
     </row>
     <row r="7" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G7">
         <v>0.125</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>0.19400000000000001</v>
       </c>
       <c r="I7">
@@ -2444,7 +2538,7 @@
       <c r="K7">
         <v>0.54100000000000004</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <v>0.14099999999999999</v>
       </c>
       <c r="M7">
@@ -2453,7 +2547,7 @@
       <c r="N7">
         <v>0.11700000000000001</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="9">
         <v>0.19600000000000001</v>
       </c>
       <c r="P7">
@@ -2470,13 +2564,13 @@
       </c>
     </row>
     <row r="8" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G8">
         <v>0.123</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>0.185</v>
       </c>
       <c r="I8">
@@ -2488,7 +2582,7 @@
       <c r="K8">
         <v>0.54200000000000004</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <v>0.14000000000000001</v>
       </c>
       <c r="M8">
@@ -2497,7 +2591,7 @@
       <c r="N8">
         <v>0.13</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="9">
         <v>0.191</v>
       </c>
       <c r="P8">
@@ -2514,13 +2608,13 @@
       </c>
     </row>
     <row r="9" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G9">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>0.188</v>
       </c>
       <c r="I9">
@@ -2532,7 +2626,7 @@
       <c r="K9">
         <v>0.54400000000000004</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="8">
         <v>0.13900000000000001</v>
       </c>
       <c r="M9">
@@ -2541,7 +2635,7 @@
       <c r="N9">
         <v>0.153</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="9">
         <v>0.19400000000000001</v>
       </c>
       <c r="P9">
@@ -2558,13 +2652,13 @@
       </c>
     </row>
     <row r="10" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <v>6.3E-2</v>
       </c>
       <c r="G10">
         <v>0.124</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>0.191</v>
       </c>
       <c r="I10">
@@ -2576,7 +2670,7 @@
       <c r="K10">
         <v>0.55600000000000005</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <v>0.14299999999999999</v>
       </c>
       <c r="M10">
@@ -2585,7 +2679,7 @@
       <c r="N10">
         <v>0.109</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="9">
         <v>0.19</v>
       </c>
       <c r="P10">
@@ -2602,13 +2696,13 @@
       </c>
     </row>
     <row r="11" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G11">
         <v>0.128</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>0.189</v>
       </c>
       <c r="I11">
@@ -2620,7 +2714,7 @@
       <c r="K11">
         <v>0.53200000000000003</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="8">
         <v>0.14099999999999999</v>
       </c>
       <c r="M11">
@@ -2629,7 +2723,7 @@
       <c r="N11">
         <v>0.128</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="9">
         <v>0.19400000000000001</v>
       </c>
       <c r="P11">
@@ -2646,13 +2740,13 @@
       </c>
     </row>
     <row r="12" spans="5:19" x14ac:dyDescent="0.15">
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>6.3E-2</v>
       </c>
       <c r="G12">
         <v>0.125</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>0.187</v>
       </c>
       <c r="I12">
@@ -2664,7 +2758,7 @@
       <c r="K12">
         <v>0.53</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <v>0.14199999999999999</v>
       </c>
       <c r="M12">
@@ -2673,7 +2767,7 @@
       <c r="N12">
         <v>0.107</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="9">
         <v>0.19900000000000001</v>
       </c>
       <c r="P12">
@@ -2690,70 +2784,70 @@
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="1" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2761,51 +2855,51 @@
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>869</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="2">
         <v>90</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="5">
         <v>20</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="2">
         <v>3995</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="2">
         <v>5861</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="2">
         <v>6867</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="4">
         <v>1958</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="2">
         <v>554</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="2">
         <v>1078</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="5">
         <v>1637</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="2">
         <v>5910</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="2">
         <v>9036</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="2">
         <v>9036</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="2">
         <v>5910</v>
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <f t="shared" ref="E25:R25" si="0">AVERAGE(F7:F12)</f>
         <v>6.3333333333333339E-2</v>
       </c>
@@ -2813,7 +2907,7 @@
         <f t="shared" si="0"/>
         <v>0.124</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="9">
         <f t="shared" si="0"/>
         <v>0.18900000000000003</v>
       </c>
@@ -2829,7 +2923,7 @@
         <f t="shared" si="0"/>
         <v>0.54083333333333339</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>0.14100000000000001</v>
       </c>
@@ -2841,7 +2935,7 @@
         <f t="shared" si="0"/>
         <v>0.124</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="9">
         <f t="shared" si="0"/>
         <v>0.19399999999999998</v>
       </c>
@@ -2887,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="F12:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
@@ -2906,70 +3000,70 @@
   </cols>
   <sheetData>
     <row r="12" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="2" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="1" t="s">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="13" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2977,57 +3071,57 @@
       <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>1287</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="2">
         <v>156</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="5">
         <v>34</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="2">
         <v>5864</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="2">
         <v>8481</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="2">
         <v>10035</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="4">
         <v>2944</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="2">
         <v>800</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="2">
         <v>1547</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="5">
         <v>2433</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="2">
         <v>8958</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="2">
         <v>13535</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="2">
         <v>13535</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="2">
         <v>8958</v>
       </c>
     </row>
     <row r="15" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G15" s="12">
+      <c r="G15" s="8">
         <v>0.10100000000000001</v>
       </c>
       <c r="H15">
         <v>0.19</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>0.29599999999999999</v>
       </c>
       <c r="J15">
@@ -3039,7 +3133,7 @@
       <c r="L15">
         <v>1.026</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="8">
         <v>0.245</v>
       </c>
       <c r="N15">
@@ -3048,7 +3142,7 @@
       <c r="O15">
         <v>0.182</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="9">
         <v>0.308</v>
       </c>
       <c r="Q15">
@@ -3065,13 +3159,13 @@
       </c>
     </row>
     <row r="16" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G16" s="12">
+      <c r="G16" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H16">
         <v>0.191</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <v>0.29899999999999999</v>
       </c>
       <c r="J16">
@@ -3083,7 +3177,7 @@
       <c r="L16">
         <v>1.02</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="8">
         <v>0.248</v>
       </c>
       <c r="N16">
@@ -3092,7 +3186,7 @@
       <c r="O16">
         <v>0.18099999999999999</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="9">
         <v>0.315</v>
       </c>
       <c r="Q16">
@@ -3109,13 +3203,13 @@
       </c>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G17" s="12">
+      <c r="G17" s="8">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="H17">
         <v>0.19</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="9">
         <v>0.28899999999999998</v>
       </c>
       <c r="J17">
@@ -3127,7 +3221,7 @@
       <c r="L17">
         <v>1.02</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="8">
         <v>0.249</v>
       </c>
       <c r="N17">
@@ -3136,7 +3230,7 @@
       <c r="O17">
         <v>0.18099999999999999</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="9">
         <v>0.29899999999999999</v>
       </c>
       <c r="Q17">
@@ -3153,13 +3247,13 @@
       </c>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G18" s="12">
+      <c r="G18" s="8">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H18">
         <v>0.191</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>0.29099999999999998</v>
       </c>
       <c r="J18">
@@ -3171,7 +3265,7 @@
       <c r="L18">
         <v>1.0209999999999999</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="8">
         <v>0.25</v>
       </c>
       <c r="N18">
@@ -3180,7 +3274,7 @@
       <c r="O18">
         <v>0.183</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="9">
         <v>0.3</v>
       </c>
       <c r="Q18">
@@ -3197,13 +3291,13 @@
       </c>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G19" s="12">
+      <c r="G19" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H19">
         <v>0.191</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <v>0.29199999999999998</v>
       </c>
       <c r="J19">
@@ -3215,7 +3309,7 @@
       <c r="L19">
         <v>1.0169999999999999</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="8">
         <v>0.245</v>
       </c>
       <c r="N19">
@@ -3224,7 +3318,7 @@
       <c r="O19">
         <v>0.182</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="9">
         <v>0.29799999999999999</v>
       </c>
       <c r="Q19">
@@ -3235,11 +3329,11 @@
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G20" s="12"/>
+      <c r="G20" s="8"/>
       <c r="H20">
         <v>0.19400000000000001</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>0.28799999999999998</v>
       </c>
       <c r="J20">
@@ -3251,83 +3345,83 @@
       <c r="L20">
         <v>1.0229999999999999</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="8"/>
       <c r="N20">
         <v>0.40600000000000003</v>
       </c>
       <c r="O20">
         <v>0.186</v>
       </c>
-      <c r="P20" s="13"/>
+      <c r="P20" s="9"/>
       <c r="S20">
         <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="1" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="2" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="1" t="s">
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.15">
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P31" s="9" t="s">
+      <c r="P31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="T31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3335,51 +3429,51 @@
       <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <v>1287</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="2">
         <v>156</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="5">
         <v>34</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="2">
         <v>5864</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="2">
         <v>8481</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="2">
         <v>10035</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="4">
         <v>2944</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="2">
         <v>800</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="2">
         <v>1547</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="5">
         <v>2433</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="2">
         <v>8958</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="2">
         <v>13535</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S32" s="2">
         <v>13535</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="2">
         <v>8958</v>
       </c>
     </row>
     <row r="33" spans="7:20" x14ac:dyDescent="0.15">
-      <c r="G33" s="12">
+      <c r="G33" s="8">
         <f t="shared" ref="G33:T33" si="0">AVERAGE(G15:G20)</f>
         <v>9.8599999999999993E-2</v>
       </c>
@@ -3387,7 +3481,7 @@
         <f t="shared" si="0"/>
         <v>0.19116666666666668</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="9">
         <f t="shared" si="0"/>
         <v>0.29249999999999998</v>
       </c>
@@ -3403,7 +3497,7 @@
         <f t="shared" si="0"/>
         <v>1.0211666666666666</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="8">
         <f t="shared" si="0"/>
         <v>0.24740000000000001</v>
       </c>
@@ -3415,7 +3509,7 @@
         <f t="shared" si="0"/>
         <v>0.1825</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="9">
         <f t="shared" si="0"/>
         <v>0.30399999999999999</v>
       </c>
@@ -4010,241 +4104,4790 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29102FB9-8E69-C543-8DD1-4D03FAA9B247}">
-  <dimension ref="B1:AT35"/>
+  <dimension ref="B1:AC147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="10.83203125" style="7"/>
+    <col min="14" max="14" width="10.83203125" style="7"/>
+    <col min="15" max="15" width="10.83203125" style="10"/>
+    <col min="18" max="18" width="10.83203125" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E2" s="15">
-        <v>5000</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E3" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E4" s="15">
-        <v>20000</v>
-      </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E5" s="15">
-        <v>50000</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E6" s="15">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E7" s="15">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="15">
-        <v>10817434</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E8" s="15">
-        <v>517402</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4">
+        <v>38.228000000000002</v>
+      </c>
+      <c r="O4" s="20">
+        <v>106.01</v>
+      </c>
+      <c r="P4" s="10">
+        <f>O4-Q4</f>
+        <v>24.26100000000001</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>81.748999999999995</v>
+      </c>
+      <c r="R4" s="10">
+        <f>SUM(N4,P4,Q4)</f>
+        <v>144.238</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <v>30.59</v>
+      </c>
+      <c r="O5" s="20">
+        <v>103.849</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" ref="P5:P7" si="0">O5-Q5</f>
+        <v>23.564999999999998</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>80.284000000000006</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" ref="R5:R7" si="1">SUM(N5,P5,Q5)</f>
+        <v>134.43900000000002</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6">
+        <v>30.568999999999999</v>
+      </c>
+      <c r="O6" s="20">
+        <v>105.39</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="0"/>
+        <v>24.129999999999995</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="1"/>
+        <v>135.959</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="2:24" ht="20" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7">
+        <v>30.541</v>
+      </c>
+      <c r="O7" s="20">
+        <v>105.577</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>24.798000000000002</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>80.778999999999996</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="1"/>
+        <v>136.11799999999999</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C14">
+      <c r="H13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(N4:N7)</f>
+        <v>32.481999999999999</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(O4:O7)</f>
+        <v>105.20650000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:H14" si="2">AVERAGE(P4:P7)</f>
+        <v>24.188500000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>81.018000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>137.6885</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F17" si="3">E15-G15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(D15,F15,G15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <f>SUM(D16,F16,G16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="22">
+        <f>AVERAGE(T17:T20)</f>
+        <v>270.67775</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" ref="E17:G17" si="4">AVERAGE(U17:U20)</f>
+        <v>701.81299999999999</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="4"/>
+        <v>129.29</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="4"/>
+        <v>572.52300000000002</v>
+      </c>
+      <c r="H17" s="23">
+        <f>SUM(D17,F17,G17)</f>
+        <v>972.49075000000005</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17">
+        <v>270.05200000000002</v>
+      </c>
+      <c r="U17" s="20">
+        <v>706.41399999999999</v>
+      </c>
+      <c r="V17" s="10">
+        <f>U17-W17</f>
+        <v>130.78399999999999</v>
+      </c>
+      <c r="W17" s="10">
+        <v>575.63</v>
+      </c>
+      <c r="X17" s="10">
+        <f>SUM(T17,V17,W17)</f>
+        <v>976.46600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10">
+        <v>270.51400000000001</v>
+      </c>
+      <c r="U18" s="20">
+        <v>698.50400000000002</v>
+      </c>
+      <c r="V18" s="10">
+        <f t="shared" ref="V18:V20" si="5">U18-W18</f>
+        <v>127.73000000000002</v>
+      </c>
+      <c r="W18" s="10">
+        <v>570.774</v>
+      </c>
+      <c r="X18" s="10">
+        <f t="shared" ref="X18:X20" si="6">SUM(T18,V18,W18)</f>
+        <v>969.01800000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19">
+        <v>270.423</v>
+      </c>
+      <c r="U19" s="20">
+        <v>697.80499999999995</v>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="5"/>
+        <v>128.48299999999995</v>
+      </c>
+      <c r="W19" s="10">
+        <v>569.322</v>
+      </c>
+      <c r="X19" s="10">
+        <f t="shared" si="6"/>
+        <v>968.22799999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10">
+        <v>50000</v>
+      </c>
+      <c r="P20" s="10">
+        <v>3140794</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20">
+        <v>271.72199999999998</v>
+      </c>
+      <c r="U20" s="20">
+        <v>704.529</v>
+      </c>
+      <c r="V20" s="10">
+        <f t="shared" si="5"/>
+        <v>130.16300000000001</v>
+      </c>
+      <c r="W20" s="10">
+        <v>574.36599999999999</v>
+      </c>
+      <c r="X20" s="10">
+        <f t="shared" si="6"/>
+        <v>976.25099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10">
+        <v>100000</v>
+      </c>
+      <c r="P21" s="10">
+        <v>6058452</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10">
         <v>200000</v>
       </c>
-      <c r="D14">
-        <v>109.173</v>
-      </c>
-      <c r="E14">
-        <v>366.1</v>
-      </c>
-      <c r="F14">
-        <v>590.52300000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C15">
-        <v>100000</v>
-      </c>
-      <c r="D15">
-        <v>76.894999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="4:46" x14ac:dyDescent="0.15">
-      <c r="D31" s="14" t="s">
+      <c r="P22" s="10">
+        <v>10817434</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="10">
+        <v>21492659</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="2:29" s="24" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+    </row>
+    <row r="28" spans="2:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="B28" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14" t="s">
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="18"/>
+      <c r="AC31" s="10"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC32" s="10"/>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="10">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="F33" s="10">
+        <f>E33-G33</f>
+        <v>0.3889999999999999</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H33" s="17">
+        <f>SUM(D33,F33,G33)</f>
+        <v>0.94308299999999989</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1.1E-4</v>
+      </c>
+      <c r="J33" s="21">
+        <v>11.852</v>
+      </c>
+      <c r="K33" s="10">
+        <f>J33-L33</f>
+        <v>11.312000000000001</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="M33" s="17">
+        <f>SUM(I33,K33,L33)</f>
+        <v>11.85211</v>
+      </c>
+      <c r="N33" s="10">
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="O33" s="21">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="P33" s="10">
+        <f>O33-Q33</f>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="R33" s="17">
+        <f>SUM(N33,P33,Q33)</f>
+        <v>0.93108100000000005</v>
+      </c>
+      <c r="S33" s="10">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="T33" s="21">
+        <v>11.852</v>
+      </c>
+      <c r="U33" s="10">
+        <f>T33-V33</f>
+        <v>11.311</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="W33" s="17">
+        <f>SUM(S33,U33,V33)</f>
+        <v>11.852075000000001</v>
+      </c>
+      <c r="AC33" s="10"/>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="10">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1.871</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" ref="F34:F36" si="7">E34-G34</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1.127</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" ref="H34:H36" si="8">SUM(D34,F34,G34)</f>
+        <v>1.8710789999999999</v>
+      </c>
+      <c r="I34" s="10">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="J34" s="21">
+        <v>41.713999999999999</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" ref="K34:K36" si="9">J34-L34</f>
+        <v>40.595999999999997</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" ref="M34:M36" si="10">SUM(I34,K34,L34)</f>
+        <v>41.714078000000001</v>
+      </c>
+      <c r="N34" s="10">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="O34" s="21">
+        <v>1.863</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" ref="P34:P36" si="11">O34-Q34</f>
+        <v>0.73899999999999988</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="R34" s="17">
+        <f t="shared" ref="R34:R36" si="12">SUM(N34,P34,Q34)</f>
+        <v>1.8630789999999999</v>
+      </c>
+      <c r="S34" s="10">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="T34" s="21">
+        <v>41.716999999999999</v>
+      </c>
+      <c r="U34" s="10">
+        <f t="shared" ref="U34:U36" si="13">T34-V34</f>
+        <v>40.594000000000001</v>
+      </c>
+      <c r="V34" s="10">
+        <v>1.123</v>
+      </c>
+      <c r="W34" s="17">
+        <f t="shared" ref="W34:W36" si="14">SUM(S34,U34,V34)</f>
+        <v>41.717078999999998</v>
+      </c>
+      <c r="AC34" s="10"/>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="10">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="7"/>
+        <v>1.359</v>
+      </c>
+      <c r="G35" s="10">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="8"/>
+        <v>3.5470770000000003</v>
+      </c>
+      <c r="I35" s="10">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="J35" s="21">
+        <v>136.232</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="9"/>
+        <v>134.05000000000001</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="10"/>
+        <v>136.232077</v>
+      </c>
+      <c r="N35" s="10">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="O35" s="21">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="11"/>
+        <v>1.347</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="R35" s="17">
+        <f t="shared" si="12"/>
+        <v>3.477077</v>
+      </c>
+      <c r="S35" s="10">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="T35" s="21">
+        <v>136.244</v>
+      </c>
+      <c r="U35" s="10">
+        <f t="shared" si="13"/>
+        <v>134.06399999999999</v>
+      </c>
+      <c r="V35" s="10">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="W35" s="17">
+        <f t="shared" si="14"/>
+        <v>136.244079</v>
+      </c>
+      <c r="AC35" s="10"/>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="10">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="E36" s="21">
+        <v>7.2649999999999997</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="7"/>
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="G36" s="10">
+        <v>4.5419999999999998</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="8"/>
+        <v>7.2650829999999997</v>
+      </c>
+      <c r="I36" s="10">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="J36" s="21">
+        <v>523.09199999999998</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="9"/>
+        <v>518.49699999999996</v>
+      </c>
+      <c r="L36" s="10">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="10"/>
+        <v>523.092085</v>
+      </c>
+      <c r="N36" s="10">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="O36" s="21">
+        <v>7.1790000000000003</v>
+      </c>
+      <c r="P36" s="10">
+        <f t="shared" si="11"/>
+        <v>2.7</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="R36" s="17">
+        <f t="shared" si="12"/>
+        <v>7.1790820000000002</v>
+      </c>
+      <c r="S36" s="10">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="T36" s="21">
+        <v>523.52700000000004</v>
+      </c>
+      <c r="U36" s="10">
+        <f t="shared" si="13"/>
+        <v>518.87100000000009</v>
+      </c>
+      <c r="V36" s="10">
+        <v>4.6559999999999997</v>
+      </c>
+      <c r="W36" s="17">
+        <f t="shared" si="14"/>
+        <v>523.52708300000006</v>
+      </c>
+      <c r="AC36" s="10"/>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="7"/>
+      <c r="AC37" s="10"/>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+    </row>
+    <row r="40" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+    </row>
+    <row r="41" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+    </row>
+    <row r="42" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+    </row>
+    <row r="43" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="10"/>
+    </row>
+    <row r="44" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC44" s="10"/>
+    </row>
+    <row r="45" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2.14E-4</v>
+      </c>
+      <c r="E45" s="21">
+        <v>2.944</v>
+      </c>
+      <c r="F45" s="10">
+        <f>E45-G45</f>
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1.756</v>
+      </c>
+      <c r="H45" s="17">
+        <f>SUM(D45,F45,G45)</f>
+        <v>2.9442139999999997</v>
+      </c>
+      <c r="I45" s="10">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="J45" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="K45" s="10">
+        <f>J45-L45</f>
+        <v>0.69100000000000006</v>
+      </c>
+      <c r="L45" s="10">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="M45" s="17">
+        <f>SUM(I45,K45,L45)</f>
+        <v>1.7001139999999999</v>
+      </c>
+      <c r="N45" s="10">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="O45" s="21">
+        <v>2.891</v>
+      </c>
+      <c r="P45" s="10">
+        <f>O45-Q45</f>
+        <v>1.175</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>1.716</v>
+      </c>
+      <c r="R45" s="17">
+        <f>SUM(N45,P45,Q45)</f>
+        <v>2.8912269999999998</v>
+      </c>
+      <c r="S45" s="10">
+        <v>1.13E-4</v>
+      </c>
+      <c r="T45" s="21">
+        <v>1.712</v>
+      </c>
+      <c r="U45" s="10">
+        <f>T45-V45</f>
+        <v>0.69100000000000006</v>
+      </c>
+      <c r="V45" s="10">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="W45" s="17">
+        <f>SUM(S45,U45,V45)</f>
+        <v>1.712113</v>
+      </c>
+      <c r="X45" s="10">
+        <v>2.33E-4</v>
+      </c>
+      <c r="Y45" s="21">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="Z45" s="10">
+        <f>Y45-AA45</f>
+        <v>1.3769999999999998</v>
+      </c>
+      <c r="AA45" s="10">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="AB45" s="17">
+        <f>SUM(X45,Z45,AA45)</f>
+        <v>3.4042329999999996</v>
+      </c>
+      <c r="AC45" s="10"/>
+    </row>
+    <row r="46" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2.0799999999999999E-4</v>
+      </c>
+      <c r="E46" s="21">
+        <v>5.8390000000000004</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" ref="F46:F48" si="15">E46-G46</f>
+        <v>2.2620000000000005</v>
+      </c>
+      <c r="G46" s="10">
+        <v>3.577</v>
+      </c>
+      <c r="H46" s="17">
+        <f t="shared" ref="H46:H48" si="16">SUM(D46,F46,G46)</f>
+        <v>5.8392080000000011</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1.18E-4</v>
+      </c>
+      <c r="J46" s="21">
+        <v>3.3889999999999998</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" ref="K46:K48" si="17">J46-L46</f>
+        <v>1.319</v>
+      </c>
+      <c r="L46" s="10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M46" s="17">
+        <f t="shared" ref="M46:M48" si="18">SUM(I46,K46,L46)</f>
+        <v>3.3891179999999999</v>
+      </c>
+      <c r="N46" s="10">
+        <v>2.02E-4</v>
+      </c>
+      <c r="O46" s="21">
+        <v>5.8449999999999998</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" ref="P46:P48" si="19">O46-Q46</f>
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>3.577</v>
+      </c>
+      <c r="R46" s="17">
+        <f t="shared" ref="R46:R48" si="20">SUM(N46,P46,Q46)</f>
+        <v>5.8452019999999996</v>
+      </c>
+      <c r="S46" s="10">
+        <v>1.21E-4</v>
+      </c>
+      <c r="T46" s="21">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="U46" s="10">
+        <f t="shared" ref="U46:U48" si="21">T46-V46</f>
+        <v>1.319</v>
+      </c>
+      <c r="V46" s="10">
+        <v>2.073</v>
+      </c>
+      <c r="W46" s="17">
+        <f t="shared" ref="W46:W48" si="22">SUM(S46,U46,V46)</f>
+        <v>3.3921209999999999</v>
+      </c>
+      <c r="X46" s="10">
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>6.6440000000000001</v>
+      </c>
+      <c r="Z46" s="10">
+        <f t="shared" ref="Z46:Z48" si="23">Y46-AA46</f>
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>4.056</v>
+      </c>
+      <c r="AB46" s="17">
+        <f t="shared" ref="AB46:AB48" si="24">SUM(X46,Z46,AA46)</f>
+        <v>6.6442350000000001</v>
+      </c>
+      <c r="AC46" s="10"/>
+    </row>
+    <row r="47" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="E47" s="21">
+        <v>10.819000000000001</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="15"/>
+        <v>4.0820000000000007</v>
+      </c>
+      <c r="G47" s="10">
+        <v>6.7370000000000001</v>
+      </c>
+      <c r="H47" s="17">
+        <f t="shared" si="16"/>
+        <v>10.819199000000001</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1.17E-4</v>
+      </c>
+      <c r="J47" s="21">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="17"/>
+        <v>2.4069999999999996</v>
+      </c>
+      <c r="L47" s="10">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="M47" s="17">
+        <f t="shared" si="18"/>
+        <v>6.4061170000000001</v>
+      </c>
+      <c r="N47" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O47" s="21">
+        <v>11.013</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="19"/>
+        <v>4.125</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>6.8879999999999999</v>
+      </c>
+      <c r="R47" s="17">
+        <f t="shared" si="20"/>
+        <v>11.013200000000001</v>
+      </c>
+      <c r="S47" s="10">
+        <v>1.18E-4</v>
+      </c>
+      <c r="T47" s="21">
+        <v>6.282</v>
+      </c>
+      <c r="U47" s="10">
+        <f t="shared" si="21"/>
+        <v>2.3770000000000002</v>
+      </c>
+      <c r="V47" s="10">
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="W47" s="17">
+        <f t="shared" si="22"/>
+        <v>6.2821180000000005</v>
+      </c>
+      <c r="X47" s="10">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>12.67</v>
+      </c>
+      <c r="Z47" s="10">
+        <f t="shared" si="23"/>
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="AA47" s="10">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="AB47" s="17">
+        <f t="shared" si="24"/>
+        <v>12.670248000000001</v>
+      </c>
+      <c r="AC47" s="10"/>
+    </row>
+    <row r="48" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="E48" s="21">
+        <v>22.692</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="15"/>
+        <v>8.2509999999999994</v>
+      </c>
+      <c r="G48" s="10">
+        <v>14.441000000000001</v>
+      </c>
+      <c r="H48" s="17">
+        <f t="shared" si="16"/>
+        <v>22.692209999999999</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1.25E-4</v>
+      </c>
+      <c r="J48" s="21">
+        <v>13.22</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="17"/>
+        <v>4.8050000000000015</v>
+      </c>
+      <c r="L48" s="10">
+        <v>8.4149999999999991</v>
+      </c>
+      <c r="M48" s="17">
+        <f t="shared" si="18"/>
+        <v>13.220124999999999</v>
+      </c>
+      <c r="N48" s="10">
+        <v>2.1100000000000001E-4</v>
+      </c>
+      <c r="O48" s="21">
+        <v>23.077000000000002</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="19"/>
+        <v>8.5840000000000014</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>14.493</v>
+      </c>
+      <c r="R48" s="17">
+        <f t="shared" si="20"/>
+        <v>23.077211000000002</v>
+      </c>
+      <c r="S48" s="10">
+        <v>1.2E-4</v>
+      </c>
+      <c r="T48" s="21">
+        <v>13.145</v>
+      </c>
+      <c r="U48" s="10">
+        <f t="shared" si="21"/>
+        <v>4.8460000000000001</v>
+      </c>
+      <c r="V48" s="10">
+        <v>8.2989999999999995</v>
+      </c>
+      <c r="W48" s="17">
+        <f t="shared" si="22"/>
+        <v>13.145119999999999</v>
+      </c>
+      <c r="X48" s="10">
+        <v>2.43E-4</v>
+      </c>
+      <c r="Y48" s="21">
+        <v>26.184999999999999</v>
+      </c>
+      <c r="Z48" s="10">
+        <f t="shared" si="23"/>
+        <v>9.4719999999999978</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>16.713000000000001</v>
+      </c>
+      <c r="AB48" s="17">
+        <f t="shared" si="24"/>
+        <v>26.185243</v>
+      </c>
+      <c r="AC48" s="10"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="10"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D52" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="10"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z53" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC53" s="10"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1.64E-4</v>
+      </c>
+      <c r="E54" s="21">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="F54" s="10">
+        <f>E54-G54</f>
+        <v>0.81499999999999972</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="H54" s="17">
+        <f>SUM(D54,F54,G54)</f>
+        <v>2.0181639999999996</v>
+      </c>
+      <c r="I54" s="10">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="J54" s="21">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="K54" s="10">
+        <f>J54-L54</f>
+        <v>0.378</v>
+      </c>
+      <c r="L54" s="10">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M54" s="17">
+        <f>SUM(I54,K54,L54)</f>
+        <v>0.92206699999999997</v>
+      </c>
+      <c r="N54" s="10">
+        <v>2.31E-4</v>
+      </c>
+      <c r="O54" s="21">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="P54" s="10">
+        <f>O54-Q54</f>
+        <v>1.3649999999999998</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>2.012</v>
+      </c>
+      <c r="R54" s="17">
+        <f>SUM(N54,P54,Q54)</f>
+        <v>3.3772310000000001</v>
+      </c>
+      <c r="S54" s="10">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="T54" s="21">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="U54" s="10">
+        <f>T54-V54</f>
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="V54" s="10">
+        <v>1.21</v>
+      </c>
+      <c r="W54" s="17">
+        <f>SUM(S54,U54,V54)</f>
+        <v>2.033131</v>
+      </c>
+      <c r="X54" s="10">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="Y54" s="21">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="Z54" s="10">
+        <f>Y54-AA54</f>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AB54" s="17">
+        <f>SUM(X54,Z54,AA54)</f>
+        <v>0.92906700000000009</v>
+      </c>
+      <c r="AC54" s="10"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1.34E-4</v>
+      </c>
+      <c r="E55" s="21">
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" ref="F55:F57" si="25">E55-G55</f>
+        <v>1.5630000000000002</v>
+      </c>
+      <c r="G55" s="10">
+        <v>2.464</v>
+      </c>
+      <c r="H55" s="17">
+        <f t="shared" ref="H55:H57" si="26">SUM(D55,F55,G55)</f>
+        <v>4.0271340000000002</v>
+      </c>
+      <c r="I55" s="10">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="J55" s="21">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" ref="K55:K57" si="27">J55-L55</f>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="L55" s="10">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="M55" s="17">
+        <f t="shared" ref="M55:M57" si="28">SUM(I55,K55,L55)</f>
+        <v>1.8320660000000002</v>
+      </c>
+      <c r="N55" s="10">
+        <v>2.3599999999999999E-4</v>
+      </c>
+      <c r="O55" s="21">
+        <v>6.7110000000000003</v>
+      </c>
+      <c r="P55" s="10">
+        <f t="shared" ref="P55:P57" si="29">O55-Q55</f>
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>4.1070000000000002</v>
+      </c>
+      <c r="R55" s="17">
+        <f t="shared" ref="R55:R57" si="30">SUM(N55,P55,Q55)</f>
+        <v>6.7112360000000004</v>
+      </c>
+      <c r="S55" s="10">
+        <v>1.36E-4</v>
+      </c>
+      <c r="T55" s="21">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="U55" s="10">
+        <f t="shared" ref="U55:U57" si="31">T55-V55</f>
+        <v>1.5650000000000004</v>
+      </c>
+      <c r="V55" s="10">
+        <v>2.468</v>
+      </c>
+      <c r="W55" s="17">
+        <f t="shared" ref="W55:W57" si="32">SUM(S55,U55,V55)</f>
+        <v>4.0331360000000007</v>
+      </c>
+      <c r="X55" s="10">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="Y55" s="21">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="Z55" s="10">
+        <f t="shared" ref="Z55:Z57" si="33">Y55-AA55</f>
+        <v>0.70899999999999985</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="AB55" s="17">
+        <f t="shared" ref="AB55:AB57" si="34">SUM(X55,Z55,AA55)</f>
+        <v>1.8130729999999999</v>
+      </c>
+      <c r="AC55" s="10"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="E56" s="21">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="25"/>
+        <v>2.8289999999999997</v>
+      </c>
+      <c r="G56" s="10">
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="H56" s="17">
+        <f t="shared" si="26"/>
+        <v>7.4751319999999994</v>
+      </c>
+      <c r="I56" s="10">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="J56" s="21">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="27"/>
+        <v>1.3199999999999998</v>
+      </c>
+      <c r="L56" s="10">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="M56" s="17">
+        <f t="shared" si="28"/>
+        <v>3.5020679999999995</v>
+      </c>
+      <c r="N56" s="10">
+        <v>2.33E-4</v>
+      </c>
+      <c r="O56" s="21">
+        <v>12.714</v>
+      </c>
+      <c r="P56" s="10">
+        <f t="shared" si="29"/>
+        <v>4.7790000000000008</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="R56" s="17">
+        <f t="shared" si="30"/>
+        <v>12.714233</v>
+      </c>
+      <c r="S56" s="10">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="T56" s="21">
+        <v>7.6059999999999999</v>
+      </c>
+      <c r="U56" s="10">
+        <f t="shared" si="31"/>
+        <v>2.8709999999999996</v>
+      </c>
+      <c r="V56" s="10">
+        <v>4.7350000000000003</v>
+      </c>
+      <c r="W56" s="17">
+        <f t="shared" si="32"/>
+        <v>7.6061319999999997</v>
+      </c>
+      <c r="X56" s="10">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="Y56" s="21">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="Z56" s="10">
+        <f t="shared" si="33"/>
+        <v>1.3160000000000003</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>2.1669999999999998</v>
+      </c>
+      <c r="AB56" s="17">
+        <f t="shared" si="34"/>
+        <v>3.4830680000000003</v>
+      </c>
+      <c r="AC56" s="10"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="E57" s="21">
+        <v>15.661</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="25"/>
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="G57" s="10">
+        <v>9.7669999999999995</v>
+      </c>
+      <c r="H57" s="17">
+        <f t="shared" si="26"/>
+        <v>15.661137999999999</v>
+      </c>
+      <c r="I57" s="10">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="J57" s="21">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="27"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="L57" s="10">
+        <v>4.5940000000000003</v>
+      </c>
+      <c r="M57" s="17">
+        <f t="shared" si="28"/>
+        <v>7.239096</v>
+      </c>
+      <c r="N57" s="10">
+        <v>2.43E-4</v>
+      </c>
+      <c r="O57" s="21">
+        <v>26.030999999999999</v>
+      </c>
+      <c r="P57" s="10">
+        <f t="shared" si="29"/>
+        <v>9.4139999999999979</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>16.617000000000001</v>
+      </c>
+      <c r="R57" s="17">
+        <f t="shared" si="30"/>
+        <v>26.031242999999996</v>
+      </c>
+      <c r="S57" s="10">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="T57" s="21">
+        <v>15.656000000000001</v>
+      </c>
+      <c r="U57" s="10">
+        <f t="shared" si="31"/>
+        <v>5.6710000000000012</v>
+      </c>
+      <c r="V57" s="10">
+        <v>9.9849999999999994</v>
+      </c>
+      <c r="W57" s="17">
+        <f t="shared" si="32"/>
+        <v>15.656139</v>
+      </c>
+      <c r="X57" s="10">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="Y57" s="21">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="Z57" s="10">
+        <f t="shared" si="33"/>
+        <v>2.6460000000000008</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>4.5759999999999996</v>
+      </c>
+      <c r="AB57" s="17">
+        <f t="shared" si="34"/>
+        <v>7.2220680000000002</v>
+      </c>
+      <c r="AC57" s="10"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="10"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+    </row>
+    <row r="61" spans="2:29" s="24" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+    </row>
+    <row r="63" spans="2:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="B63" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+    </row>
+    <row r="65" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+    </row>
+    <row r="66" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D66" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14" t="s">
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14" t="s">
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="18"/>
+    </row>
+    <row r="67" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R67" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W67" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="10">
+        <f>D33/4</f>
+        <v>2.075E-5</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10">
+        <f t="shared" ref="E68:W68" si="35">F33/4</f>
+        <v>9.7249999999999975E-2</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="35"/>
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="35"/>
+        <v>0.23577074999999997</v>
+      </c>
+      <c r="I68" s="10">
+        <f t="shared" si="35"/>
+        <v>2.7500000000000001E-5</v>
+      </c>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10">
+        <f t="shared" si="35"/>
+        <v>2.8280000000000003</v>
+      </c>
+      <c r="L68" s="10">
+        <f t="shared" si="35"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M68" s="7">
+        <f t="shared" si="35"/>
+        <v>2.9630274999999999</v>
+      </c>
+      <c r="N68" s="10">
+        <f t="shared" si="35"/>
+        <v>2.0250000000000001E-5</v>
+      </c>
+      <c r="P68" s="10">
+        <f t="shared" si="35"/>
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="Q68" s="10">
+        <f t="shared" si="35"/>
+        <v>0.13625000000000001</v>
+      </c>
+      <c r="R68" s="7">
+        <f t="shared" si="35"/>
+        <v>0.23277025000000001</v>
+      </c>
+      <c r="S68" s="10">
+        <f t="shared" si="35"/>
+        <v>1.8749999999999998E-5</v>
+      </c>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10">
+        <f t="shared" si="35"/>
+        <v>2.82775</v>
+      </c>
+      <c r="V68" s="10">
+        <f t="shared" si="35"/>
+        <v>0.13525000000000001</v>
+      </c>
+      <c r="W68" s="7">
+        <f t="shared" si="35"/>
+        <v>2.9630187500000003</v>
+      </c>
+    </row>
+    <row r="69" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" ref="D69:W69" si="36">D34/4</f>
+        <v>1.9749999999999999E-5</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10">
+        <f t="shared" si="36"/>
+        <v>0.186</v>
+      </c>
+      <c r="G69" s="10">
+        <f t="shared" si="36"/>
+        <v>0.28175</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" si="36"/>
+        <v>0.46776974999999998</v>
+      </c>
+      <c r="I69" s="10">
+        <f t="shared" si="36"/>
+        <v>1.95E-5</v>
+      </c>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10">
+        <f t="shared" si="36"/>
+        <v>10.148999999999999</v>
+      </c>
+      <c r="L69" s="10">
+        <f t="shared" si="36"/>
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="M69" s="7">
+        <f t="shared" si="36"/>
+        <v>10.4285195</v>
+      </c>
+      <c r="N69" s="10">
+        <f t="shared" si="36"/>
+        <v>1.9749999999999999E-5</v>
+      </c>
+      <c r="P69" s="10">
+        <f t="shared" si="36"/>
+        <v>0.18474999999999997</v>
+      </c>
+      <c r="Q69" s="10">
+        <f t="shared" si="36"/>
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="R69" s="7">
+        <f t="shared" si="36"/>
+        <v>0.46576974999999998</v>
+      </c>
+      <c r="S69" s="10">
+        <f t="shared" si="36"/>
+        <v>1.9749999999999999E-5</v>
+      </c>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10">
+        <f t="shared" si="36"/>
+        <v>10.1485</v>
+      </c>
+      <c r="V69" s="10">
+        <f t="shared" si="36"/>
+        <v>0.28075</v>
+      </c>
+      <c r="W69" s="7">
+        <f t="shared" si="36"/>
+        <v>10.42926975</v>
+      </c>
+    </row>
+    <row r="70" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" ref="D70:W70" si="37">D35/4</f>
+        <v>1.925E-5</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10">
+        <f t="shared" si="37"/>
+        <v>0.33975</v>
+      </c>
+      <c r="G70" s="10">
+        <f t="shared" si="37"/>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="37"/>
+        <v>0.88676925000000006</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="37"/>
+        <v>1.925E-5</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10">
+        <f t="shared" si="37"/>
+        <v>33.512500000000003</v>
+      </c>
+      <c r="L70" s="10">
+        <f t="shared" si="37"/>
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="37"/>
+        <v>34.058019250000001</v>
+      </c>
+      <c r="N70" s="10">
+        <f t="shared" si="37"/>
+        <v>1.925E-5</v>
+      </c>
+      <c r="P70" s="10">
+        <f t="shared" si="37"/>
+        <v>0.33674999999999999</v>
+      </c>
+      <c r="Q70" s="10">
+        <f t="shared" si="37"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="R70" s="7">
+        <f t="shared" si="37"/>
+        <v>0.86926924999999999</v>
+      </c>
+      <c r="S70" s="10">
+        <f t="shared" si="37"/>
+        <v>1.9749999999999999E-5</v>
+      </c>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10">
+        <f t="shared" si="37"/>
+        <v>33.515999999999998</v>
+      </c>
+      <c r="V70" s="10">
+        <f t="shared" si="37"/>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="W70" s="7">
+        <f t="shared" si="37"/>
+        <v>34.06101975</v>
+      </c>
+    </row>
+    <row r="71" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" ref="D71:W71" si="38">D36/4</f>
+        <v>2.075E-5</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.68074999999999997</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" si="38"/>
+        <v>1.1355</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="38"/>
+        <v>1.8162707499999999</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="38"/>
+        <v>2.1250000000000002E-5</v>
+      </c>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10">
+        <f t="shared" si="38"/>
+        <v>129.62424999999999</v>
+      </c>
+      <c r="L71" s="10">
+        <f t="shared" si="38"/>
+        <v>1.1487499999999999</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="38"/>
+        <v>130.77302125</v>
+      </c>
+      <c r="N71" s="10">
+        <f t="shared" si="38"/>
+        <v>2.05E-5</v>
+      </c>
+      <c r="P71" s="10">
+        <f t="shared" si="38"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Q71" s="10">
+        <f t="shared" si="38"/>
+        <v>1.11975</v>
+      </c>
+      <c r="R71" s="7">
+        <f t="shared" si="38"/>
+        <v>1.7947705</v>
+      </c>
+      <c r="S71" s="10">
+        <f t="shared" si="38"/>
+        <v>2.075E-5</v>
+      </c>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10">
+        <f t="shared" si="38"/>
+        <v>129.71775000000002</v>
+      </c>
+      <c r="V71" s="10">
+        <f t="shared" si="38"/>
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="W71" s="7">
+        <f t="shared" si="38"/>
+        <v>130.88177075000002</v>
+      </c>
+    </row>
+    <row r="72" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="7"/>
+    </row>
+    <row r="73" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+    </row>
+    <row r="74" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+    </row>
+    <row r="75" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+    </row>
+    <row r="76" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+    </row>
+    <row r="77" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+    </row>
+    <row r="78" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D78" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14" t="s">
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14" t="s">
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14" t="s">
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" t="s">
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="18"/>
+    </row>
+    <row r="79" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R79" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W79" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB79" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="10">
+        <f>D54/4</f>
+        <v>4.1E-5</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10">
+        <f t="shared" ref="E80:AB80" si="39">F54/4</f>
+        <v>0.20374999999999993</v>
+      </c>
+      <c r="G80" s="10">
+        <f t="shared" si="39"/>
+        <v>0.30075000000000002</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="39"/>
+        <v>0.50454099999999991</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="39"/>
+        <v>1.6750000000000001E-5</v>
+      </c>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10">
+        <f t="shared" si="39"/>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="L80" s="10">
+        <f t="shared" si="39"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M80" s="7">
+        <f t="shared" si="39"/>
+        <v>0.23051674999999999</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="39"/>
+        <v>5.7750000000000001E-5</v>
+      </c>
+      <c r="P80" s="10">
+        <f t="shared" si="39"/>
+        <v>0.34124999999999994</v>
+      </c>
+      <c r="Q80" s="10">
+        <f t="shared" si="39"/>
+        <v>0.503</v>
+      </c>
+      <c r="R80" s="7">
+        <f t="shared" si="39"/>
+        <v>0.84430775000000002</v>
+      </c>
+      <c r="S80" s="10">
+        <f t="shared" si="39"/>
+        <v>3.2750000000000003E-5</v>
+      </c>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10">
+        <f t="shared" si="39"/>
+        <v>0.20574999999999999</v>
+      </c>
+      <c r="V80" s="10">
+        <f t="shared" si="39"/>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="W80" s="7">
+        <f t="shared" si="39"/>
+        <v>0.50828275000000001</v>
+      </c>
+      <c r="X80" s="10">
+        <f t="shared" si="39"/>
+        <v>1.6750000000000001E-5</v>
+      </c>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10">
+        <f t="shared" si="39"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AA80" s="10">
+        <f t="shared" si="39"/>
+        <v>0.13325000000000001</v>
+      </c>
+      <c r="AB80" s="7">
+        <f t="shared" si="39"/>
+        <v>0.23226675000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="10">
+        <f t="shared" ref="D81:AB81" si="40">D55/4</f>
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.39075000000000004</v>
+      </c>
+      <c r="G81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H81" s="7">
+        <f t="shared" si="40"/>
+        <v>1.0067835000000001</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="40"/>
+        <v>1.6500000000000001E-5</v>
+      </c>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="L81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="M81" s="7">
+        <f t="shared" si="40"/>
+        <v>0.45801650000000005</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="40"/>
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="P81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="Q81" s="10">
+        <f t="shared" si="40"/>
+        <v>1.0267500000000001</v>
+      </c>
+      <c r="R81" s="7">
+        <f t="shared" si="40"/>
+        <v>1.6778090000000001</v>
+      </c>
+      <c r="S81" s="10">
+        <f t="shared" si="40"/>
+        <v>3.4E-5</v>
+      </c>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.3912500000000001</v>
+      </c>
+      <c r="V81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="W81" s="7">
+        <f t="shared" si="40"/>
+        <v>1.0082840000000002</v>
+      </c>
+      <c r="X81" s="10">
+        <f t="shared" si="40"/>
+        <v>1.825E-5</v>
+      </c>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.17724999999999996</v>
+      </c>
+      <c r="AA81" s="10">
+        <f t="shared" si="40"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AB81" s="7">
+        <f t="shared" si="40"/>
+        <v>0.45326824999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="10">
+        <f t="shared" ref="D82:AB82" si="41">D56/4</f>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10">
+        <f t="shared" si="41"/>
+        <v>0.70724999999999993</v>
+      </c>
+      <c r="G82" s="10">
+        <f t="shared" si="41"/>
+        <v>1.1615</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" si="41"/>
+        <v>1.8687829999999999</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="41"/>
+        <v>1.7E-5</v>
+      </c>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10">
+        <f t="shared" si="41"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="L82" s="10">
+        <f t="shared" si="41"/>
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="M82" s="7">
+        <f t="shared" si="41"/>
+        <v>0.87551699999999988</v>
+      </c>
+      <c r="N82" s="10">
+        <f t="shared" si="41"/>
+        <v>5.825E-5</v>
+      </c>
+      <c r="P82" s="10">
+        <f t="shared" si="41"/>
+        <v>1.1947500000000002</v>
+      </c>
+      <c r="Q82" s="10">
+        <f t="shared" si="41"/>
+        <v>1.9837499999999999</v>
+      </c>
+      <c r="R82" s="7">
+        <f t="shared" si="41"/>
+        <v>3.17855825</v>
+      </c>
+      <c r="S82" s="10">
+        <f t="shared" si="41"/>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10">
+        <f t="shared" si="41"/>
+        <v>0.71774999999999989</v>
+      </c>
+      <c r="V82" s="10">
+        <f t="shared" si="41"/>
+        <v>1.1837500000000001</v>
+      </c>
+      <c r="W82" s="7">
+        <f t="shared" si="41"/>
+        <v>1.9015329999999999</v>
+      </c>
+      <c r="X82" s="10">
+        <f t="shared" si="41"/>
+        <v>1.7E-5</v>
+      </c>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10">
+        <f t="shared" si="41"/>
+        <v>0.32900000000000007</v>
+      </c>
+      <c r="AA82" s="10">
+        <f t="shared" si="41"/>
+        <v>0.54174999999999995</v>
+      </c>
+      <c r="AB82" s="7">
+        <f t="shared" si="41"/>
+        <v>0.87076700000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="10">
+        <f t="shared" ref="D83:AB83" si="42">D57/4</f>
+        <v>3.4499999999999998E-5</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10">
+        <f t="shared" si="42"/>
+        <v>1.4735</v>
+      </c>
+      <c r="G83" s="10">
+        <f t="shared" si="42"/>
+        <v>2.4417499999999999</v>
+      </c>
+      <c r="H83" s="7">
+        <f t="shared" si="42"/>
+        <v>3.9152844999999998</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" si="42"/>
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10">
+        <f t="shared" si="42"/>
+        <v>0.66124999999999989</v>
+      </c>
+      <c r="L83" s="10">
+        <f t="shared" si="42"/>
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="M83" s="7">
+        <f t="shared" si="42"/>
+        <v>1.809774</v>
+      </c>
+      <c r="N83" s="10">
+        <f t="shared" si="42"/>
+        <v>6.0749999999999999E-5</v>
+      </c>
+      <c r="P83" s="10">
+        <f t="shared" si="42"/>
+        <v>2.3534999999999995</v>
+      </c>
+      <c r="Q83" s="10">
+        <f t="shared" si="42"/>
+        <v>4.1542500000000002</v>
+      </c>
+      <c r="R83" s="7">
+        <f t="shared" si="42"/>
+        <v>6.5078107499999991</v>
+      </c>
+      <c r="S83" s="10">
+        <f t="shared" si="42"/>
+        <v>3.4749999999999998E-5</v>
+      </c>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10">
+        <f t="shared" si="42"/>
+        <v>1.4177500000000003</v>
+      </c>
+      <c r="V83" s="10">
+        <f t="shared" si="42"/>
+        <v>2.4962499999999999</v>
+      </c>
+      <c r="W83" s="7">
+        <f t="shared" si="42"/>
+        <v>3.9140347499999999</v>
+      </c>
+      <c r="X83" s="10">
+        <f t="shared" si="42"/>
+        <v>1.7E-5</v>
+      </c>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10">
+        <f t="shared" si="42"/>
+        <v>0.6615000000000002</v>
+      </c>
+      <c r="AA83" s="10">
+        <f t="shared" si="42"/>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="AB83" s="7">
+        <f t="shared" si="42"/>
+        <v>1.805517</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="7"/>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D87" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AT31" t="s">
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="18"/>
+      <c r="X87" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="4:46" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="18"/>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="D88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E88" s="16"/>
+      <c r="F88" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H88" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J88" s="16"/>
+      <c r="K88" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J32" t="s">
+      <c r="M88" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="O88" s="16"/>
+      <c r="P88" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M32" t="s">
+      <c r="R88" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="T88" s="16"/>
+      <c r="U88" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P32" t="s">
+      <c r="W88" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="Y88" s="16"/>
+      <c r="Z88" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA88" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C34">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C35">
-        <v>200000</v>
-      </c>
-      <c r="D35">
-        <v>2.0000000000000002E-5</v>
-      </c>
+      <c r="AB88" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="10">
+        <f>D54/4</f>
+        <v>4.1E-5</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10">
+        <f t="shared" ref="E89:AB89" si="43">F54/4</f>
+        <v>0.20374999999999993</v>
+      </c>
+      <c r="G89" s="10">
+        <f t="shared" si="43"/>
+        <v>0.30075000000000002</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" si="43"/>
+        <v>0.50454099999999991</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="43"/>
+        <v>1.6750000000000001E-5</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10">
+        <f t="shared" si="43"/>
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="L89" s="10">
+        <f t="shared" si="43"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M89" s="7">
+        <f t="shared" si="43"/>
+        <v>0.23051674999999999</v>
+      </c>
+      <c r="N89" s="10">
+        <f t="shared" si="43"/>
+        <v>5.7750000000000001E-5</v>
+      </c>
+      <c r="P89" s="10">
+        <f t="shared" si="43"/>
+        <v>0.34124999999999994</v>
+      </c>
+      <c r="Q89" s="10">
+        <f t="shared" si="43"/>
+        <v>0.503</v>
+      </c>
+      <c r="R89" s="7">
+        <f t="shared" si="43"/>
+        <v>0.84430775000000002</v>
+      </c>
+      <c r="S89" s="10">
+        <f t="shared" si="43"/>
+        <v>3.2750000000000003E-5</v>
+      </c>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10">
+        <f t="shared" si="43"/>
+        <v>0.20574999999999999</v>
+      </c>
+      <c r="V89" s="10">
+        <f t="shared" si="43"/>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="W89" s="7">
+        <f t="shared" si="43"/>
+        <v>0.50828275000000001</v>
+      </c>
+      <c r="X89" s="10">
+        <f t="shared" si="43"/>
+        <v>1.6750000000000001E-5</v>
+      </c>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10">
+        <f t="shared" si="43"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AA89" s="10">
+        <f t="shared" si="43"/>
+        <v>0.13325000000000001</v>
+      </c>
+      <c r="AB89" s="7">
+        <f t="shared" si="43"/>
+        <v>0.23226675000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="10">
+        <f t="shared" ref="D90:AB90" si="44">D55/4</f>
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.39075000000000004</v>
+      </c>
+      <c r="G90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H90" s="7">
+        <f t="shared" si="44"/>
+        <v>1.0067835000000001</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="44"/>
+        <v>1.6500000000000001E-5</v>
+      </c>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.17849999999999999</v>
+      </c>
+      <c r="L90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="M90" s="7">
+        <f t="shared" si="44"/>
+        <v>0.45801650000000005</v>
+      </c>
+      <c r="N90" s="10">
+        <f t="shared" si="44"/>
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="P90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="Q90" s="10">
+        <f t="shared" si="44"/>
+        <v>1.0267500000000001</v>
+      </c>
+      <c r="R90" s="7">
+        <f t="shared" si="44"/>
+        <v>1.6778090000000001</v>
+      </c>
+      <c r="S90" s="10">
+        <f t="shared" si="44"/>
+        <v>3.4E-5</v>
+      </c>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.3912500000000001</v>
+      </c>
+      <c r="V90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="W90" s="7">
+        <f t="shared" si="44"/>
+        <v>1.0082840000000002</v>
+      </c>
+      <c r="X90" s="10">
+        <f t="shared" si="44"/>
+        <v>1.825E-5</v>
+      </c>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.17724999999999996</v>
+      </c>
+      <c r="AA90" s="10">
+        <f t="shared" si="44"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AB90" s="7">
+        <f t="shared" si="44"/>
+        <v>0.45326824999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="10">
+        <f t="shared" ref="D91:AB91" si="45">D56/4</f>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10">
+        <f t="shared" si="45"/>
+        <v>0.70724999999999993</v>
+      </c>
+      <c r="G91" s="10">
+        <f t="shared" si="45"/>
+        <v>1.1615</v>
+      </c>
+      <c r="H91" s="7">
+        <f t="shared" si="45"/>
+        <v>1.8687829999999999</v>
+      </c>
+      <c r="I91" s="10">
+        <f t="shared" si="45"/>
+        <v>1.7E-5</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10">
+        <f t="shared" si="45"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="L91" s="10">
+        <f t="shared" si="45"/>
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="M91" s="7">
+        <f t="shared" si="45"/>
+        <v>0.87551699999999988</v>
+      </c>
+      <c r="N91" s="10">
+        <f t="shared" si="45"/>
+        <v>5.825E-5</v>
+      </c>
+      <c r="P91" s="10">
+        <f t="shared" si="45"/>
+        <v>1.1947500000000002</v>
+      </c>
+      <c r="Q91" s="10">
+        <f t="shared" si="45"/>
+        <v>1.9837499999999999</v>
+      </c>
+      <c r="R91" s="7">
+        <f t="shared" si="45"/>
+        <v>3.17855825</v>
+      </c>
+      <c r="S91" s="10">
+        <f t="shared" si="45"/>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10">
+        <f t="shared" si="45"/>
+        <v>0.71774999999999989</v>
+      </c>
+      <c r="V91" s="10">
+        <f t="shared" si="45"/>
+        <v>1.1837500000000001</v>
+      </c>
+      <c r="W91" s="7">
+        <f t="shared" si="45"/>
+        <v>1.9015329999999999</v>
+      </c>
+      <c r="X91" s="10">
+        <f t="shared" si="45"/>
+        <v>1.7E-5</v>
+      </c>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10">
+        <f t="shared" si="45"/>
+        <v>0.32900000000000007</v>
+      </c>
+      <c r="AA91" s="10">
+        <f t="shared" si="45"/>
+        <v>0.54174999999999995</v>
+      </c>
+      <c r="AB91" s="7">
+        <f t="shared" si="45"/>
+        <v>0.87076700000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="10">
+        <f t="shared" ref="D92:AB92" si="46">D57/4</f>
+        <v>3.4499999999999998E-5</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10">
+        <f t="shared" si="46"/>
+        <v>1.4735</v>
+      </c>
+      <c r="G92" s="10">
+        <f t="shared" si="46"/>
+        <v>2.4417499999999999</v>
+      </c>
+      <c r="H92" s="7">
+        <f t="shared" si="46"/>
+        <v>3.9152844999999998</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="46"/>
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10">
+        <f t="shared" si="46"/>
+        <v>0.66124999999999989</v>
+      </c>
+      <c r="L92" s="10">
+        <f t="shared" si="46"/>
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="M92" s="7">
+        <f t="shared" si="46"/>
+        <v>1.809774</v>
+      </c>
+      <c r="N92" s="10">
+        <f t="shared" si="46"/>
+        <v>6.0749999999999999E-5</v>
+      </c>
+      <c r="P92" s="10">
+        <f t="shared" si="46"/>
+        <v>2.3534999999999995</v>
+      </c>
+      <c r="Q92" s="10">
+        <f t="shared" si="46"/>
+        <v>4.1542500000000002</v>
+      </c>
+      <c r="R92" s="7">
+        <f t="shared" si="46"/>
+        <v>6.5078107499999991</v>
+      </c>
+      <c r="S92" s="10">
+        <f t="shared" si="46"/>
+        <v>3.4749999999999998E-5</v>
+      </c>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10">
+        <f t="shared" si="46"/>
+        <v>1.4177500000000003</v>
+      </c>
+      <c r="V92" s="10">
+        <f t="shared" si="46"/>
+        <v>2.4962499999999999</v>
+      </c>
+      <c r="W92" s="7">
+        <f t="shared" si="46"/>
+        <v>3.9140347499999999</v>
+      </c>
+      <c r="X92" s="10">
+        <f t="shared" si="46"/>
+        <v>1.7E-5</v>
+      </c>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10">
+        <f t="shared" si="46"/>
+        <v>0.6615000000000002</v>
+      </c>
+      <c r="AA92" s="10">
+        <f t="shared" si="46"/>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="AB92" s="7">
+        <f t="shared" si="46"/>
+        <v>1.805517</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+    </row>
+    <row r="97" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+    </row>
+    <row r="98" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+    </row>
+    <row r="99" spans="7:19" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+    </row>
+    <row r="100" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+    </row>
+    <row r="101" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+    </row>
+    <row r="102" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+    </row>
+    <row r="103" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+    </row>
+    <row r="104" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+    </row>
+    <row r="105" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+    </row>
+    <row r="106" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+    </row>
+    <row r="107" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+    </row>
+    <row r="108" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+    </row>
+    <row r="109" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+    </row>
+    <row r="110" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+    </row>
+    <row r="111" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+    </row>
+    <row r="112" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+    </row>
+    <row r="113" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+    </row>
+    <row r="114" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+    </row>
+    <row r="115" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+    </row>
+    <row r="116" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+    </row>
+    <row r="117" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+    </row>
+    <row r="118" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+    </row>
+    <row r="119" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+    </row>
+    <row r="120" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+    </row>
+    <row r="121" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+    </row>
+    <row r="122" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+    </row>
+    <row r="123" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+      <c r="S123" s="10"/>
+    </row>
+    <row r="124" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+    </row>
+    <row r="125" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+    </row>
+    <row r="126" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+    </row>
+    <row r="127" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
+    </row>
+    <row r="128" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
+    </row>
+    <row r="129" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
+    </row>
+    <row r="130" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
+    </row>
+    <row r="131" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+    </row>
+    <row r="132" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+    </row>
+    <row r="133" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+    </row>
+    <row r="134" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+    </row>
+    <row r="135" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+    </row>
+    <row r="136" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+    </row>
+    <row r="137" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="10"/>
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
+    </row>
+    <row r="138" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+    </row>
+    <row r="139" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+    </row>
+    <row r="140" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+    </row>
+    <row r="141" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10"/>
+      <c r="S141" s="10"/>
+    </row>
+    <row r="142" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+      <c r="P142" s="10"/>
+      <c r="Q142" s="10"/>
+      <c r="R142" s="10"/>
+      <c r="S142" s="10"/>
+    </row>
+    <row r="143" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10"/>
+      <c r="S143" s="10"/>
+    </row>
+    <row r="144" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="10"/>
+      <c r="R144" s="10"/>
+      <c r="S144" s="10"/>
+    </row>
+    <row r="145" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="10"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145" s="10"/>
+    </row>
+    <row r="146" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146" s="10"/>
+    </row>
+    <row r="147" spans="7:19" x14ac:dyDescent="0.15">
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="10"/>
+      <c r="S147" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
+  <mergeCells count="30">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="X78:AB78"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="I87:M87"/>
+    <mergeCell ref="N87:R87"/>
+    <mergeCell ref="S87:W87"/>
+    <mergeCell ref="X87:AB87"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="N66:R66"/>
+    <mergeCell ref="S66:W66"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="S43:W43"/>
+    <mergeCell ref="X43:AB43"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="X52:AB52"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="S31:W31"/>
+    <mergeCell ref="D43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>